--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C3EAA4-1308-405C-BB10-EFE6F426C098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32DE9C-6201-49BA-9F81-F9CF9AE7D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,9 +256,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,19 +542,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:R27"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -562,40 +576,40 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -792,13 +806,43 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" t="e">
+        <v>0.20976000000000003</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.29754000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.2114</v>
+      </c>
+      <c r="N5">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.30009999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1092,22 +1136,22 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="e">
@@ -1196,32 +1240,62 @@
       <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="e">
+      <c r="G13">
         <f t="shared" ref="G13:G20" si="6">AVERAGE(I13,K13,M13,O13,Q13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" t="e">
+        <v>0.19803999999999999</v>
+      </c>
+      <c r="H13">
         <f t="shared" ref="H13:H20" si="7">AVERAGE(J13,L13,N13,P13,R13)</f>
-        <v>#DIV/0!</v>
+        <v>0.24538000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="J13">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.221</v>
+      </c>
+      <c r="L13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.1636</v>
+      </c>
+      <c r="N13">
+        <v>0.252</v>
+      </c>
+      <c r="O13">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.315</v>
+      </c>
+      <c r="Q13">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" t="e">
@@ -1234,22 +1308,22 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="e">
@@ -1262,22 +1336,22 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" t="e">
@@ -1289,23 +1363,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" t="e">
@@ -1317,7 +1391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1331,21 +1405,51 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="e">
+      <c r="G18">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" t="e">
+        <v>0.41098000000000001</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.32982000000000006</v>
+      </c>
+      <c r="I18">
+        <v>0.41</v>
+      </c>
+      <c r="J18">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.4128</v>
+      </c>
+      <c r="L18">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4123</v>
+      </c>
+      <c r="P18">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="R18">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1359,21 +1463,27 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" t="e">
+      <c r="G19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" t="e">
+        <v>0.2203</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.2203</v>
+      </c>
+      <c r="J19">
+        <v>0.29270000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -1401,7 +1511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1561,7 +1671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1581,7 +1691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1962,47 +2072,48 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52">
-        <v>1E-3</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53">
-        <v>1E-3</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32DE9C-6201-49BA-9F81-F9CF9AE7D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFC6E6-AE39-44D9-B0C2-DA9FC97E891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,36 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,10 +286,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,19 +577,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1142,44 +1177,74 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
+        <v>0.44973999999999997</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.27832000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.2772</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G12">
@@ -1222,22 +1287,22 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G13">
@@ -1280,115 +1345,235 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="e">
+      <c r="G14">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" t="e">
+        <v>0.45385999999999999</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.35682000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.3528</v>
+      </c>
+      <c r="K14">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.4546</v>
+      </c>
+      <c r="N14">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="O14">
+        <v>0.4546</v>
+      </c>
+      <c r="P14">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.4587</v>
+      </c>
+      <c r="R14">
+        <v>0.36070000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G15" t="e">
+      <c r="G15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" t="e">
+        <v>0.44535999999999998</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.2646</v>
+      </c>
+      <c r="K15">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="N15">
+        <v>0.2641</v>
+      </c>
+      <c r="O15">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.4456</v>
+      </c>
+      <c r="R15">
+        <v>0.26319999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" t="e">
+      <c r="G16">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
+        <v>0.34317999999999999</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.34761999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.3458</v>
+      </c>
+      <c r="J16">
+        <v>0.35260000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.3397</v>
+      </c>
+      <c r="L16">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="R16">
+        <v>0.35070000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="e">
+      <c r="G17">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
+        <v>0.22694</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.28281999999999996</v>
+      </c>
+      <c r="I17">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.224</v>
+      </c>
+      <c r="N17">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="O17">
+        <v>0.2238</v>
+      </c>
+      <c r="P17">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.26519999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1470,17 +1655,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>0.2203</v>
+        <v>0.22757999999999998</v>
       </c>
       <c r="H19">
         <f t="shared" si="7"/>
-        <v>0.29270000000000002</v>
+        <v>0.27504000000000001</v>
       </c>
       <c r="I19">
         <v>0.2203</v>
       </c>
       <c r="J19">
         <v>0.29270000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0.2319</v>
+      </c>
+      <c r="L19">
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2223</v>
+      </c>
+      <c r="P19">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.2298</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1502,13 +1711,43 @@
       <c r="F20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" t="e">
+      <c r="G20">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" t="e">
+        <v>0.23416000000000001</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.28657999999999995</v>
+      </c>
+      <c r="I20">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="M20">
+        <v>0.2326</v>
+      </c>
+      <c r="N20">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.2268</v>
+      </c>
+      <c r="P20">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="R20">
+        <v>0.2339</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1530,6 +1769,44 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
+      <c r="G22">
+        <f>AVERAGE(I22,K22,M22,O22,Q22)</f>
+        <v>0.45464000000000004</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H27" si="8">AVERAGE(J22,L22,N22,P22,R22)</f>
+        <v>0.3533</v>
+      </c>
+      <c r="I22">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.4592</v>
+      </c>
+      <c r="L22">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.4506</v>
+      </c>
+      <c r="N22">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O22">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.35920000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
@@ -1550,6 +1827,44 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G27" si="9">AVERAGE(I23,K23,M23,O23,Q23)</f>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>0.31012000000000006</v>
+      </c>
+      <c r="I23">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="K23">
+        <v>0.4491</v>
+      </c>
+      <c r="L23">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="M23">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="O23">
+        <v>0.45610000000000001</v>
+      </c>
+      <c r="P23">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.31819999999999998</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
@@ -1570,6 +1885,44 @@
       <c r="F24" t="s">
         <v>26</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>0.37038000000000004</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>0.24702000000000002</v>
+      </c>
+      <c r="I24">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="J24">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.2661</v>
+      </c>
+      <c r="M24">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="N24">
+        <v>0.2336</v>
+      </c>
+      <c r="O24">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="P24">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.374</v>
+      </c>
+      <c r="R24">
+        <v>0.24709999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
@@ -1590,6 +1943,44 @@
       <c r="F25" t="s">
         <v>28</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>0.45548</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="I25">
+        <v>0.4491</v>
+      </c>
+      <c r="J25">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="M25">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.3226</v>
+      </c>
+      <c r="Q25">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="R25">
+        <v>0.31850000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
@@ -1610,6 +2001,44 @@
       <c r="F26" t="s">
         <v>29</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>0.25292000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="K26">
+        <v>0.3755</v>
+      </c>
+      <c r="L26">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.3669</v>
+      </c>
+      <c r="N26">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="P26">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="Q26">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="R26">
+        <v>0.26700000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
@@ -1630,128 +2059,394 @@
       <c r="F27" t="s">
         <v>30</v>
       </c>
+      <c r="G27">
+        <f>AVERAGE(I27,K27,M27,O27,Q27)</f>
+        <v>0.37744000000000005</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(J27,L27,N27,O27,R27)</f>
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.3775</v>
+      </c>
+      <c r="J27">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="K27">
+        <v>0.3755</v>
+      </c>
+      <c r="L27">
+        <v>0.2646</v>
+      </c>
+      <c r="M27">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="O27">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="P27">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.24149999999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>1E-3</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="G29">
+        <f t="shared" ref="G28:G53" si="10">AVERAGE(I29,K29,M29,O29,Q29)</f>
+        <v>0.59062000000000003</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H28:H53" si="11">AVERAGE(J29,L29,N29,P29,R29)</f>
+        <v>0.31046000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="J29">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="K29">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="L29">
+        <v>0.3115</v>
+      </c>
+      <c r="M29">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="N29">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="O29">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="P29">
+        <v>0.3155</v>
+      </c>
+      <c r="Q29">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="R29">
+        <v>0.31430000000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1E-3</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>0.55136000000000007</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="11"/>
+        <v>0.23696</v>
+      </c>
+      <c r="I30">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="J30">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="K30">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="L30">
+        <v>0.2472</v>
+      </c>
+      <c r="M30">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="N30">
+        <v>0.2419</v>
+      </c>
+      <c r="O30">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="P30">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="R30">
+        <v>0.2576</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>1E-3</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>0.54862</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>0.18332000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="J31">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.2087</v>
+      </c>
+      <c r="M31">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.184</v>
+      </c>
+      <c r="O31">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="P31">
+        <v>0.1925</v>
+      </c>
+      <c r="Q31">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="R31">
+        <v>0.14219999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32">
-        <v>1E-3</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>0.60637999999999992</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>0.26526</v>
+      </c>
+      <c r="I32">
+        <v>0.6038</v>
+      </c>
+      <c r="J32">
+        <v>0.2616</v>
+      </c>
+      <c r="K32">
+        <v>0.60970000000000002</v>
+      </c>
+      <c r="L32">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="N32">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="P32">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="R32">
+        <v>0.28010000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.54554000000000002</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H53" si="12">AVERAGE(J33,L33,N33,O33,R33)</f>
+        <v>0.26636000000000004</v>
+      </c>
+      <c r="I33">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="J33">
+        <v>0.1535</v>
+      </c>
+      <c r="K33">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="L33">
+        <v>0.2394</v>
+      </c>
+      <c r="M33">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="N33">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.1535</v>
+      </c>
+      <c r="Q33">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="R33">
+        <v>0.19009999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>0.54683999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H53" si="13">AVERAGE(J34,L34,N34,P34,R34)</f>
+        <v>0.1759</v>
+      </c>
+      <c r="I34">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="J34">
+        <v>0.16</v>
+      </c>
+      <c r="K34">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L34">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="N34">
+        <v>0.1797</v>
+      </c>
+      <c r="O34">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="P34">
+        <v>0.1673</v>
+      </c>
+      <c r="Q34">
+        <v>0.54</v>
+      </c>
+      <c r="R34">
+        <v>0.15909999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +2465,16 @@
       <c r="F35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1790,8 +2493,16 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1810,8 +2521,16 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1830,8 +2549,16 @@
       <c r="F38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1850,8 +2577,16 @@
       <c r="F39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" ref="H39:H53" si="14">AVERAGE(J39,L39,N39,O39,R39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1870,8 +2605,16 @@
       <c r="F40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G40" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" ref="H40:H53" si="15">AVERAGE(J40,L40,N40,P40,R40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1890,8 +2633,40 @@
       <c r="F42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <f>AVERAGE(I42,K42,M42,O42,Q42)</f>
+        <v>0.56745000000000001</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(J42,L42,N42,P42,R42)</f>
+        <v>0.32920000000000005</v>
+      </c>
+      <c r="I42">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="J42">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="K42">
+        <v>0.5645</v>
+      </c>
+      <c r="L42">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="P42">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="R42">
+        <v>0.31830000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -1910,8 +2685,46 @@
       <c r="F43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <f t="shared" si="10"/>
+        <v>0.55933999999999995</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="15"/>
+        <v>0.20540000000000003</v>
+      </c>
+      <c r="I43">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="J43">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="L43">
+        <v>0.2432</v>
+      </c>
+      <c r="M43">
+        <v>0.5605</v>
+      </c>
+      <c r="N43">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="P43">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="R43">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1930,8 +2743,46 @@
       <c r="F44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>0.54564000000000001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="15"/>
+        <v>0.17321999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="J44">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.5534</v>
+      </c>
+      <c r="L44">
+        <v>0.1699</v>
+      </c>
+      <c r="M44">
+        <v>0.5403</v>
+      </c>
+      <c r="N44">
+        <v>0.185</v>
+      </c>
+      <c r="O44">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="P44">
+        <v>0.1653</v>
+      </c>
+      <c r="Q44">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="R44">
+        <v>0.1757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2801,16 @@
       <c r="F45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" ref="H45:H53" si="16">AVERAGE(J45,L45,N45,O45,R45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1970,8 +2829,16 @@
       <c r="F46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" ref="H46:H53" si="17">AVERAGE(J46,L46,N46,P46,R46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -1990,8 +2857,16 @@
       <c r="F47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2010,8 +2885,16 @@
       <c r="F48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2913,16 @@
       <c r="F49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2050,8 +2941,16 @@
       <c r="F50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2070,8 +2969,16 @@
       <c r="F51" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" t="e">
+        <f t="shared" ref="H51:H53" si="18">AVERAGE(J51,L51,N51,O51,R51)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2090,8 +2997,16 @@
       <c r="F52" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" t="e">
+        <f t="shared" ref="H52:H53" si="19">AVERAGE(J52,L52,N52,P52,R52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
@@ -2109,6 +3024,14 @@
       </c>
       <c r="F53" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFC6E6-AE39-44D9-B0C2-DA9FC97E891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0702917-DC00-4826-9196-253515D8EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
   <si>
     <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>t2v_dense_all_action++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +269,13 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +306,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,24 +587,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -647,8 +659,11 @@
       <c r="R1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -706,7 +721,7 @@
         <v>0.35070000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -764,7 +779,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -822,7 +837,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -880,7 +895,7 @@
         <v>0.30009999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -938,7 +953,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1170,11 +1185,11 @@
         <v>0.35449999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1228,7 +1243,7 @@
         <v>0.2772</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>0.33289999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>0.29920000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1402,11 +1417,11 @@
         <v>0.36070000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1460,7 +1475,7 @@
         <v>0.26319999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>0.35070000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>0.32790000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1707,7 @@
         <v>0.2298</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1765,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>0.45464000000000004</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="8">AVERAGE(J22,L22,N22,P22,R22)</f>
+        <f t="shared" ref="H22:H26" si="8">AVERAGE(J22,L22,N22,P22,R22)</f>
         <v>0.3533</v>
       </c>
       <c r="I22">
@@ -1808,7 +1823,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G27" si="9">AVERAGE(I23,K23,M23,O23,Q23)</f>
+        <f t="shared" ref="G23:G26" si="9">AVERAGE(I23,K23,M23,O23,Q23)</f>
         <v>0.45240000000000002</v>
       </c>
       <c r="H23">
@@ -1866,7 +1881,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>0.31850000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2113,7 @@
         <v>0.24149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:30">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -2118,45 +2133,75 @@
         <v>23</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G28:G53" si="10">AVERAGE(I29,K29,M29,O29,Q29)</f>
-        <v>0.59062000000000003</v>
+        <f t="shared" ref="G29:G34" si="10">AVERAGE(I29,K29,M29,O29,Q29)</f>
+        <v>0.5887</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H28:H53" si="11">AVERAGE(J29,L29,N29,P29,R29)</f>
-        <v>0.31046000000000001</v>
+        <f t="shared" ref="H29:H32" si="11">AVERAGE(J29,L29,N29,P29,R29)</f>
+        <v>0.30351999999999996</v>
       </c>
       <c r="I29">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="K29">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="L29">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="N29">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="P29">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="R29">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="U29" s="8">
         <v>0.59419999999999995</v>
       </c>
-      <c r="J29">
+      <c r="V29" s="8">
         <v>0.31330000000000002</v>
       </c>
-      <c r="K29">
+      <c r="W29" s="8">
         <v>0.59089999999999998</v>
       </c>
-      <c r="L29">
+      <c r="X29" s="8">
         <v>0.3115</v>
       </c>
-      <c r="M29">
+      <c r="Y29" s="8">
         <v>0.58850000000000002</v>
       </c>
-      <c r="N29">
+      <c r="Z29" s="8">
         <v>0.29770000000000002</v>
       </c>
-      <c r="O29">
+      <c r="AA29" s="8">
         <v>0.59260000000000002</v>
       </c>
-      <c r="P29">
+      <c r="AB29" s="8">
         <v>0.3155</v>
       </c>
-      <c r="Q29">
+      <c r="AC29" s="8">
         <v>0.58689999999999998</v>
       </c>
-      <c r="R29">
+      <c r="AD29" s="8">
         <v>0.31430000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:30">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -2177,44 +2222,74 @@
       </c>
       <c r="G30">
         <f t="shared" si="10"/>
-        <v>0.55136000000000007</v>
+        <v>0.55063999999999991</v>
       </c>
       <c r="H30">
         <f t="shared" si="11"/>
-        <v>0.23696</v>
+        <v>0.24938000000000002</v>
       </c>
       <c r="I30">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="J30">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="K30">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L30">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.23</v>
+      </c>
+      <c r="O30">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="P30">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R30">
+        <v>0.2351</v>
+      </c>
+      <c r="U30" s="8">
         <v>0.55700000000000005</v>
       </c>
-      <c r="J30">
+      <c r="V30" s="8">
         <v>0.26790000000000003</v>
       </c>
-      <c r="K30">
+      <c r="W30" s="8">
         <v>0.55279999999999996</v>
       </c>
-      <c r="L30">
+      <c r="X30" s="8">
         <v>0.2472</v>
       </c>
-      <c r="M30">
+      <c r="Y30" s="8">
         <v>0.55030000000000001</v>
       </c>
-      <c r="N30">
+      <c r="Z30" s="8">
         <v>0.2419</v>
       </c>
-      <c r="O30">
+      <c r="AA30" s="8">
         <v>0.53959999999999997</v>
       </c>
-      <c r="P30">
+      <c r="AB30" s="8">
         <v>0.17019999999999999</v>
       </c>
-      <c r="Q30">
+      <c r="AC30" s="8">
         <v>0.55710000000000004</v>
       </c>
-      <c r="R30">
+      <c r="AD30" s="8">
         <v>0.2576</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:30">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -2235,44 +2310,74 @@
       </c>
       <c r="G31">
         <f t="shared" si="10"/>
-        <v>0.54862</v>
+        <v>0.54548000000000008</v>
       </c>
       <c r="H31">
         <f t="shared" si="11"/>
-        <v>0.18332000000000001</v>
+        <v>0.17392000000000002</v>
       </c>
       <c r="I31">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="L31">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="N31">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.5444</v>
+      </c>
+      <c r="P31">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="R31">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="U31" s="8">
         <v>0.55259999999999998</v>
       </c>
-      <c r="J31">
+      <c r="V31" s="8">
         <v>0.18920000000000001</v>
       </c>
-      <c r="K31">
+      <c r="W31" s="8">
         <v>0.54430000000000001</v>
       </c>
-      <c r="L31">
+      <c r="X31" s="8">
         <v>0.2087</v>
       </c>
-      <c r="M31">
+      <c r="Y31" s="8">
         <v>0.54649999999999999</v>
       </c>
-      <c r="N31">
+      <c r="Z31" s="8">
         <v>0.184</v>
       </c>
-      <c r="O31">
+      <c r="AA31" s="8">
         <v>0.55100000000000005</v>
       </c>
-      <c r="P31">
+      <c r="AB31" s="8">
         <v>0.1925</v>
       </c>
-      <c r="Q31">
+      <c r="AC31" s="8">
         <v>0.54869999999999997</v>
       </c>
-      <c r="R31">
+      <c r="AD31" s="8">
         <v>0.14219999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:30">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -2293,44 +2398,74 @@
       </c>
       <c r="G32">
         <f t="shared" si="10"/>
-        <v>0.60637999999999992</v>
+        <v>0.60806000000000004</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>0.26526</v>
+        <v>0.27073999999999998</v>
       </c>
       <c r="I32">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J32">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="K32">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="L32">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="N32">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="O32">
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="P32">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="Q32">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="R32">
+        <v>0.2742</v>
+      </c>
+      <c r="U32" s="8">
         <v>0.6038</v>
       </c>
-      <c r="J32">
+      <c r="V32" s="8">
         <v>0.2616</v>
       </c>
-      <c r="K32">
+      <c r="W32" s="8">
         <v>0.60970000000000002</v>
       </c>
-      <c r="L32">
+      <c r="X32" s="8">
         <v>0.25940000000000002</v>
       </c>
-      <c r="M32">
+      <c r="Y32" s="8">
         <v>0.60729999999999995</v>
       </c>
-      <c r="N32">
+      <c r="Z32" s="8">
         <v>0.26369999999999999</v>
       </c>
-      <c r="O32">
+      <c r="AA32" s="8">
         <v>0.60550000000000004</v>
       </c>
-      <c r="P32">
+      <c r="AB32" s="8">
         <v>0.26150000000000001</v>
       </c>
-      <c r="Q32">
+      <c r="AC32" s="8">
         <v>0.60560000000000003</v>
       </c>
-      <c r="R32">
+      <c r="AD32" s="8">
         <v>0.28010000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:30">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -2351,44 +2486,74 @@
       </c>
       <c r="G33">
         <f t="shared" si="10"/>
-        <v>0.54554000000000002</v>
+        <v>0.549396</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H53" si="12">AVERAGE(J33,L33,N33,O33,R33)</f>
-        <v>0.26636000000000004</v>
+        <f t="shared" ref="H33" si="12">AVERAGE(J33,L33,N33,O33,R33)</f>
+        <v>0.24528</v>
       </c>
       <c r="I33">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="J33">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.5464</v>
+      </c>
+      <c r="N33">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.5474</v>
+      </c>
+      <c r="P33">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.54978000000000005</v>
+      </c>
+      <c r="R33">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="U33" s="8">
         <v>0.54620000000000002</v>
       </c>
-      <c r="J33">
+      <c r="V33" s="8">
         <v>0.1535</v>
       </c>
-      <c r="K33">
+      <c r="W33" s="8">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L33">
+      <c r="X33" s="8">
         <v>0.2394</v>
       </c>
-      <c r="M33">
+      <c r="Y33" s="8">
         <v>0.55159999999999998</v>
       </c>
-      <c r="N33">
+      <c r="Z33" s="8">
         <v>0.20250000000000001</v>
       </c>
-      <c r="O33">
+      <c r="AA33" s="8">
         <v>0.54630000000000001</v>
       </c>
-      <c r="P33">
+      <c r="AB33" s="8">
         <v>0.1535</v>
       </c>
-      <c r="Q33">
+      <c r="AC33" s="8">
         <v>0.54090000000000005</v>
       </c>
-      <c r="R33">
+      <c r="AD33" s="8">
         <v>0.19009999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:30">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -2409,44 +2574,74 @@
       </c>
       <c r="G34">
         <f t="shared" si="10"/>
-        <v>0.54683999999999999</v>
+        <v>0.54974000000000001</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H53" si="13">AVERAGE(J34,L34,N34,P34,R34)</f>
-        <v>0.1759</v>
+        <f t="shared" ref="H34" si="13">AVERAGE(J34,L34,N34,P34,R34)</f>
+        <v>0.18650000000000003</v>
       </c>
       <c r="I34">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J34">
+        <v>0.2112</v>
+      </c>
+      <c r="K34">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="N34">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="P34">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="Q34">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="R34">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="U34" s="8">
         <v>0.54669999999999996</v>
       </c>
-      <c r="J34">
+      <c r="V34" s="8">
         <v>0.16</v>
       </c>
-      <c r="K34">
+      <c r="W34" s="8">
         <v>0.54900000000000004</v>
       </c>
-      <c r="L34">
+      <c r="X34" s="8">
         <v>0.21340000000000001</v>
       </c>
-      <c r="M34">
+      <c r="Y34" s="8">
         <v>0.55079999999999996</v>
       </c>
-      <c r="N34">
+      <c r="Z34" s="8">
         <v>0.1797</v>
       </c>
-      <c r="O34">
+      <c r="AA34" s="8">
         <v>0.54769999999999996</v>
       </c>
-      <c r="P34">
+      <c r="AB34" s="8">
         <v>0.1673</v>
       </c>
-      <c r="Q34">
+      <c r="AC34" s="8">
         <v>0.54</v>
       </c>
-      <c r="R34">
+      <c r="AD34" s="8">
         <v>0.15909999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2465,16 +2660,46 @@
       <c r="F35" t="s">
         <v>23</v>
       </c>
-      <c r="G35" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="G35">
+        <f t="shared" ref="G35:G47" si="14">AVERAGE(I35,K35,M35,O35,Q35)</f>
+        <v>0.58864000000000005</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H38" si="15">AVERAGE(J35,L35,N35,P35,R35)</f>
+        <v>0.30962000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="K35">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="M35">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="N35">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="P35">
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="Q35">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="R35">
+        <v>0.32119999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2493,16 +2718,46 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>0.64558000000000004</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="15"/>
+        <v>0.23652000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.65</v>
+      </c>
+      <c r="J36">
+        <v>0.2462</v>
+      </c>
+      <c r="K36">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="L36">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="N36">
+        <v>0.2379</v>
+      </c>
+      <c r="O36">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="P36">
+        <v>0.2324</v>
+      </c>
+      <c r="Q36">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="R36">
+        <v>0.23139999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2521,16 +2776,46 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.63956000000000002</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="15"/>
+        <v>0.22328000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="L37">
+        <v>0.2104</v>
+      </c>
+      <c r="M37">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="P37">
+        <v>0.2235</v>
+      </c>
+      <c r="Q37">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="R37">
+        <v>0.2266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2549,16 +2834,46 @@
       <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="G38">
+        <f t="shared" si="14"/>
+        <v>0.63627999999999996</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.26022000000000001</v>
+      </c>
+      <c r="I38">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="J38">
+        <v>0.2515</v>
+      </c>
+      <c r="K38">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="M38">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="N38">
+        <v>0.253</v>
+      </c>
+      <c r="O38">
+        <v>0.6371</v>
+      </c>
+      <c r="P38">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="R38">
+        <v>0.25559999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2578,15 +2893,15 @@
         <v>29</v>
       </c>
       <c r="G39" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" t="e">
-        <f t="shared" ref="H39:H53" si="14">AVERAGE(J39,L39,N39,O39,R39)</f>
+        <f t="shared" ref="H39" si="16">AVERAGE(J39,L39,N39,O39,R39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2606,15 +2921,15 @@
         <v>30</v>
       </c>
       <c r="G40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" t="e">
-        <f t="shared" ref="H40:H53" si="15">AVERAGE(J40,L40,N40,P40,R40)</f>
+        <f t="shared" ref="H40" si="17">AVERAGE(J40,L40,N40,P40,R40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -2635,38 +2950,70 @@
       </c>
       <c r="G42">
         <f>AVERAGE(I42,K42,M42,O42,Q42)</f>
-        <v>0.56745000000000001</v>
+        <v>0.56172</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(J42,L42,N42,P42,R42)</f>
-        <v>0.32920000000000005</v>
+        <f t="shared" ref="H42:H45" si="18">AVERAGE(J42,L42,N42,P42,R42)</f>
+        <v>0.30662</v>
       </c>
       <c r="I42">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="J42">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="N42">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="O42">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="P42">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="Q42">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="R42">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="U42" s="8">
         <v>0.56730000000000003</v>
       </c>
-      <c r="J42">
+      <c r="V42" s="8">
         <v>0.34310000000000002</v>
       </c>
-      <c r="K42">
+      <c r="W42" s="8">
         <v>0.5645</v>
       </c>
-      <c r="L42">
+      <c r="X42" s="8">
         <v>0.31590000000000001</v>
       </c>
-      <c r="O42">
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8">
         <v>0.57220000000000004</v>
       </c>
-      <c r="P42">
+      <c r="AB42" s="8">
         <v>0.33950000000000002</v>
       </c>
-      <c r="Q42">
+      <c r="AC42" s="8">
         <v>0.56579999999999997</v>
       </c>
-      <c r="R42">
+      <c r="AD42" s="8">
         <v>0.31830000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2686,45 +3033,75 @@
         <v>37</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
-        <v>0.55933999999999995</v>
+        <f t="shared" ref="G43:G45" si="19">AVERAGE(I43,K43,M43,O43,Q43)</f>
+        <v>0.55854000000000004</v>
       </c>
       <c r="H43">
-        <f t="shared" si="15"/>
-        <v>0.20540000000000003</v>
+        <f t="shared" si="18"/>
+        <v>0.21469999999999997</v>
       </c>
       <c r="I43">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="J43">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="L43">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="O43">
         <v>0.56069999999999998</v>
       </c>
-      <c r="J43">
+      <c r="P43">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="Q43">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="R43">
+        <v>0.185</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="V43" s="8">
         <v>0.17710000000000001</v>
       </c>
-      <c r="K43">
+      <c r="W43" s="8">
         <v>0.56589999999999996</v>
       </c>
-      <c r="L43">
+      <c r="X43" s="8">
         <v>0.2432</v>
       </c>
-      <c r="M43">
+      <c r="Y43" s="8">
         <v>0.5605</v>
       </c>
-      <c r="N43">
+      <c r="Z43" s="8">
         <v>0.25059999999999999</v>
       </c>
-      <c r="O43">
+      <c r="AA43" s="8">
         <v>0.55179999999999996</v>
       </c>
-      <c r="P43">
+      <c r="AB43" s="8">
         <v>0.18210000000000001</v>
       </c>
-      <c r="Q43">
+      <c r="AC43" s="8">
         <v>0.55779999999999996</v>
       </c>
-      <c r="R43">
+      <c r="AD43" s="8">
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2744,45 +3121,75 @@
         <v>38</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
-        <v>0.54564000000000001</v>
+        <f t="shared" si="19"/>
+        <v>0.54659999999999997</v>
       </c>
       <c r="H44">
-        <f t="shared" si="15"/>
-        <v>0.17321999999999999</v>
+        <f t="shared" si="18"/>
+        <v>0.16470000000000001</v>
       </c>
       <c r="I44">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="J44">
+        <v>0.1101</v>
+      </c>
+      <c r="K44">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="L44">
+        <v>0.1714</v>
+      </c>
+      <c r="M44">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="N44">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.5474</v>
+      </c>
+      <c r="P44">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="R44">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="U44" s="8">
         <v>0.54690000000000005</v>
       </c>
-      <c r="J44">
+      <c r="V44" s="8">
         <v>0.17019999999999999</v>
       </c>
-      <c r="K44">
+      <c r="W44" s="8">
         <v>0.5534</v>
       </c>
-      <c r="L44">
+      <c r="X44" s="8">
         <v>0.1699</v>
       </c>
-      <c r="M44">
+      <c r="Y44" s="8">
         <v>0.5403</v>
       </c>
-      <c r="N44">
+      <c r="Z44" s="8">
         <v>0.185</v>
       </c>
-      <c r="O44">
+      <c r="AA44" s="8">
         <v>0.54669999999999996</v>
       </c>
-      <c r="P44">
+      <c r="AB44" s="8">
         <v>0.1653</v>
       </c>
-      <c r="Q44">
+      <c r="AC44" s="8">
         <v>0.54090000000000005</v>
       </c>
-      <c r="R44">
+      <c r="AD44" s="8">
         <v>0.1757</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2801,72 +3208,180 @@
       <c r="F45" t="s">
         <v>39</v>
       </c>
-      <c r="G45" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" t="e">
-        <f t="shared" ref="H45:H53" si="16">AVERAGE(J45,L45,N45,O45,R45)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" t="s">
+      <c r="G45">
+        <f t="shared" si="19"/>
+        <v>0.61746000000000012</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="18"/>
+        <v>0.25760000000000005</v>
+      </c>
+      <c r="I45">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="J45">
+        <v>0.2427</v>
+      </c>
+      <c r="K45">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="L45">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="N45">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="O45">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="P45">
+        <v>0.25729999999999997</v>
+      </c>
+      <c r="Q45">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="R45">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46">
-        <v>1E-3</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G46" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" t="e">
-        <f t="shared" ref="H46:H53" si="17">AVERAGE(J46,L46,N46,P46,R46)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" t="s">
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>0.54699999999999993</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H47" si="20">AVERAGE(J46,L46,N46,P46,R46)</f>
+        <v>0.17442000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="J46">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L46">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="N46">
+        <v>0.1512</v>
+      </c>
+      <c r="O46">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="P46">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="R46">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47">
-        <v>1E-3</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G47" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="20"/>
+        <v>0.19502000000000003</v>
+      </c>
+      <c r="I47">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="J47">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="L47">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.2109</v>
+      </c>
+      <c r="O47">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="P47">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="R47">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2885,16 +3400,46 @@
       <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="G48">
+        <f>AVERAGE(I48,K48,M49,O48,Q48)</f>
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="G47:H50" si="21">AVERAGE(J48,L48,N48,P48,R48)</f>
+        <v>0.31328000000000006</v>
+      </c>
+      <c r="I48">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="J48">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="K48">
+        <v>0.5837</v>
+      </c>
+      <c r="L48">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="M48">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="N48">
+        <v>0.318</v>
+      </c>
+      <c r="O48">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="P48">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="Q48">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="R48">
+        <v>0.31219999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2914,15 +3459,45 @@
         <v>37</v>
       </c>
       <c r="G49" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <f>AVERAGE(I49,K49,#REF!,O49,Q49)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="21"/>
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.6542</v>
+      </c>
+      <c r="J49">
+        <v>0.218</v>
+      </c>
+      <c r="K49">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L49">
+        <v>0.2281</v>
+      </c>
+      <c r="M49">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="N49">
+        <v>0.2361</v>
+      </c>
+      <c r="O49">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="P49">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="R49">
+        <v>0.2298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2941,16 +3516,46 @@
       <c r="F50" t="s">
         <v>38</v>
       </c>
-      <c r="G50" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="G50">
+        <f t="shared" si="21"/>
+        <v>0.64911999999999992</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="21"/>
+        <v>0.22191999999999998</v>
+      </c>
+      <c r="I50">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="J50">
+        <v>0.2296</v>
+      </c>
+      <c r="K50">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="L50">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="M50">
+        <v>0.6472</v>
+      </c>
+      <c r="N50">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="P50">
+        <v>0.2286</v>
+      </c>
+      <c r="Q50">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="R50">
+        <v>0.2117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2969,16 +3574,22 @@
       <c r="F51" t="s">
         <v>39</v>
       </c>
-      <c r="G51" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" ref="H51:H53" si="18">AVERAGE(J51,L51,N51,O51,R51)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="G51">
+        <f>AVERAGE(I51,K51,M51,O51,Q51)</f>
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(J51,L51,N51,O51,R51)</f>
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="I51">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="J51">
+        <v>0.24360000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2998,15 +3609,15 @@
         <v>40</v>
       </c>
       <c r="G52" t="e">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(I52,K52,M52,O52,Q52)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H52" t="e">
-        <f t="shared" ref="H52:H53" si="19">AVERAGE(J52,L52,N52,P52,R52)</f>
+        <f>AVERAGE(J52,L52,N52,P52,R52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
@@ -3026,11 +3637,11 @@
         <v>41</v>
       </c>
       <c r="G53" t="e">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(I53,K53,M53,O53,Q53)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(J53,L53,N53,P53,R53)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0702917-DC00-4826-9196-253515D8EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75690C-B8E7-4E09-BDF2-121F09CB0C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,25 +252,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="8"/>
       <name val="等线"/>
       <family val="2"/>
@@ -297,16 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,22 +567,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -721,7 +699,7 @@
         <v>0.35070000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -779,7 +757,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -837,7 +815,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -895,7 +873,7 @@
         <v>0.30009999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -953,7 +931,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +989,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1047,7 @@
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1105,7 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1185,89 +1163,119 @@
         <v>0.35449999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0.44973999999999997</v>
+        <f t="shared" ref="G11:G15" si="6">AVERAGE(I11,K11,M11,O11,Q11)</f>
+        <v>0.44658000000000009</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
-        <v>0.27832000000000001</v>
+        <f t="shared" ref="H11:H15" si="7">AVERAGE(J11,L11,N11,P11,R11)</f>
+        <v>0.26685999999999999</v>
       </c>
       <c r="I11">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.4446</v>
+      </c>
+      <c r="L11">
+        <v>0.2646</v>
+      </c>
+      <c r="M11">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="U11">
         <v>0.45029999999999998</v>
       </c>
-      <c r="J11">
+      <c r="V11">
         <v>0.27139999999999997</v>
       </c>
-      <c r="K11">
+      <c r="W11">
         <v>0.44379999999999997</v>
       </c>
-      <c r="L11">
+      <c r="X11">
         <v>0.28360000000000002</v>
       </c>
-      <c r="M11">
+      <c r="Y11">
         <v>0.44979999999999998</v>
       </c>
-      <c r="N11">
+      <c r="Z11">
         <v>0.28129999999999999</v>
       </c>
-      <c r="O11">
+      <c r="AA11">
         <v>0.45340000000000003</v>
       </c>
-      <c r="P11">
+      <c r="AB11">
         <v>0.27810000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="AC11">
         <v>0.45140000000000002</v>
       </c>
-      <c r="R11">
+      <c r="AD11">
         <v>0.2772</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:30">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33402000000000004</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32728000000000002</v>
       </c>
       <c r="I12">
@@ -1301,31 +1309,31 @@
         <v>0.33289999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:30">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G20" si="6">AVERAGE(I13,K13,M13,O13,Q13)</f>
+        <f t="shared" ref="G13:G18" si="8">AVERAGE(I13,K13,M13,O13,Q13)</f>
         <v>0.19803999999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H20" si="7">AVERAGE(J13,L13,N13,P13,R13)</f>
+        <f t="shared" ref="H13:H18" si="9">AVERAGE(J13,L13,N13,P13,R13)</f>
         <v>0.24538000000000001</v>
       </c>
       <c r="I13">
@@ -1359,124 +1367,184 @@
         <v>0.29920000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:30">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
-        <v>0.45385999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.45773999999999998</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
-        <v>0.35682000000000003</v>
+        <f t="shared" si="9"/>
+        <v>0.36146</v>
       </c>
       <c r="I14">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.3609</v>
+      </c>
+      <c r="K14">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="M14">
+        <v>0.4536</v>
+      </c>
+      <c r="N14">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="O14">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.3609</v>
+      </c>
+      <c r="Q14">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="U14">
         <v>0.44590000000000002</v>
       </c>
-      <c r="J14">
+      <c r="V14">
         <v>0.3528</v>
       </c>
-      <c r="K14">
+      <c r="W14">
         <v>0.45550000000000002</v>
       </c>
-      <c r="L14">
+      <c r="X14">
         <v>0.34749999999999998</v>
       </c>
-      <c r="M14">
+      <c r="Y14">
         <v>0.4546</v>
       </c>
-      <c r="N14">
+      <c r="Z14">
         <v>0.36770000000000003</v>
       </c>
-      <c r="O14">
+      <c r="AA14">
         <v>0.4546</v>
       </c>
-      <c r="P14">
+      <c r="AB14">
         <v>0.35539999999999999</v>
       </c>
-      <c r="Q14">
+      <c r="AC14">
         <v>0.4587</v>
       </c>
-      <c r="R14">
+      <c r="AD14">
         <v>0.36070000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:30">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0.44535999999999998</v>
+        <f t="shared" si="8"/>
+        <v>0.44579999999999992</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
-        <v>0.26090000000000002</v>
+        <f t="shared" si="9"/>
+        <v>0.26197999999999999</v>
       </c>
       <c r="I15">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="J15">
+        <v>0.2591</v>
+      </c>
+      <c r="K15">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="N15">
+        <v>0.2722</v>
+      </c>
+      <c r="O15">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>0.4511</v>
+      </c>
+      <c r="R15">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="U15">
         <v>0.44700000000000001</v>
       </c>
-      <c r="J15">
+      <c r="V15">
         <v>0.2646</v>
       </c>
-      <c r="K15">
+      <c r="W15">
         <v>0.44390000000000002</v>
       </c>
-      <c r="L15">
+      <c r="X15">
         <v>0.25969999999999999</v>
       </c>
-      <c r="M15">
+      <c r="Y15">
         <v>0.44629999999999997</v>
       </c>
-      <c r="N15">
+      <c r="Z15">
         <v>0.2641</v>
       </c>
-      <c r="O15">
+      <c r="AA15">
         <v>0.44400000000000001</v>
       </c>
-      <c r="P15">
+      <c r="AB15">
         <v>0.25290000000000001</v>
       </c>
-      <c r="Q15">
+      <c r="AC15">
         <v>0.4456</v>
       </c>
-      <c r="R15">
+      <c r="AD15">
         <v>0.26319999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:30">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1495,46 +1563,76 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
-        <v>0.34317999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.3412</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
-        <v>0.34761999999999998</v>
+        <f t="shared" si="9"/>
+        <v>0.34338000000000002</v>
       </c>
       <c r="I16">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.3422</v>
+      </c>
+      <c r="K16">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.33610000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="U16">
         <v>0.3458</v>
       </c>
-      <c r="J16">
+      <c r="V16">
         <v>0.35260000000000002</v>
       </c>
-      <c r="K16">
+      <c r="W16">
         <v>0.3397</v>
       </c>
-      <c r="L16">
+      <c r="X16">
         <v>0.34810000000000002</v>
       </c>
-      <c r="M16">
+      <c r="Y16">
         <v>0.34160000000000001</v>
       </c>
-      <c r="N16">
+      <c r="Z16">
         <v>0.34539999999999998</v>
       </c>
-      <c r="O16">
+      <c r="AA16">
         <v>0.34470000000000001</v>
       </c>
-      <c r="P16">
+      <c r="AB16">
         <v>0.34129999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="AC16">
         <v>0.34410000000000002</v>
       </c>
-      <c r="R16">
+      <c r="AD16">
         <v>0.35070000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1553,41 +1651,71 @@
         <v>26</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
-        <v>0.22694</v>
+        <f t="shared" si="8"/>
+        <v>0.23044000000000003</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
-        <v>0.28281999999999996</v>
+        <f t="shared" si="9"/>
+        <v>0.25462000000000001</v>
       </c>
       <c r="I17">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.2321</v>
+      </c>
+      <c r="N17">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R17">
+        <v>0.2737</v>
+      </c>
+      <c r="U17">
         <v>0.21920000000000001</v>
       </c>
-      <c r="J17">
+      <c r="V17">
         <v>0.31559999999999999</v>
       </c>
-      <c r="K17">
+      <c r="W17">
         <v>0.23400000000000001</v>
       </c>
-      <c r="L17">
+      <c r="X17">
         <v>0.24879999999999999</v>
       </c>
-      <c r="M17">
+      <c r="Y17">
         <v>0.224</v>
       </c>
-      <c r="N17">
+      <c r="Z17">
         <v>0.30819999999999997</v>
       </c>
-      <c r="O17">
+      <c r="AA17">
         <v>0.2238</v>
       </c>
-      <c r="P17">
+      <c r="AB17">
         <v>0.27629999999999999</v>
       </c>
-      <c r="Q17">
+      <c r="AC17">
         <v>0.23369999999999999</v>
       </c>
-      <c r="R17">
+      <c r="AD17">
         <v>0.26519999999999999</v>
       </c>
     </row>
@@ -1611,11 +1739,11 @@
         <v>28</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.41098000000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32982000000000006</v>
       </c>
       <c r="I18">
@@ -1669,11 +1797,11 @@
         <v>29</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G19:G20" si="10">AVERAGE(I19,K19,M19,O19,Q19)</f>
         <v>0.22757999999999998</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H19:H20" si="11">AVERAGE(J19,L19,N19,P19,R19)</f>
         <v>0.27504000000000001</v>
       </c>
       <c r="I19">
@@ -1727,11 +1855,11 @@
         <v>30</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.23416000000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.28657999999999995</v>
       </c>
       <c r="I20">
@@ -1789,7 +1917,7 @@
         <v>0.45464000000000004</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H26" si="8">AVERAGE(J22,L22,N22,P22,R22)</f>
+        <f t="shared" ref="H22:H26" si="12">AVERAGE(J22,L22,N22,P22,R22)</f>
         <v>0.3533</v>
       </c>
       <c r="I22">
@@ -1843,11 +1971,11 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G26" si="9">AVERAGE(I23,K23,M23,O23,Q23)</f>
+        <f t="shared" ref="G23:G26" si="13">AVERAGE(I23,K23,M23,O23,Q23)</f>
         <v>0.45240000000000002</v>
       </c>
       <c r="H23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.31012000000000006</v>
       </c>
       <c r="I23">
@@ -1901,11 +2029,11 @@
         <v>26</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.37038000000000004</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.24702000000000002</v>
       </c>
       <c r="I24">
@@ -1959,11 +2087,11 @@
         <v>28</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.45548</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.31690000000000002</v>
       </c>
       <c r="I25">
@@ -2017,11 +2145,11 @@
         <v>29</v>
       </c>
       <c r="G26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.37330000000000002</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.25292000000000003</v>
       </c>
       <c r="I26">
@@ -2114,30 +2242,30 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G34" si="10">AVERAGE(I29,K29,M29,O29,Q29)</f>
+        <f t="shared" ref="G29:G34" si="14">AVERAGE(I29,K29,M29,O29,Q29)</f>
         <v>0.5887</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H32" si="11">AVERAGE(J29,L29,N29,P29,R29)</f>
+        <f t="shared" ref="H29:H32" si="15">AVERAGE(J29,L29,N29,P29,R29)</f>
         <v>0.30351999999999996</v>
       </c>
       <c r="I29">
@@ -2170,62 +2298,62 @@
       <c r="R29">
         <v>0.30049999999999999</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="5">
         <v>0.59419999999999995</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="5">
         <v>0.31330000000000002</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="5">
         <v>0.59089999999999998</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="5">
         <v>0.3115</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y29" s="5">
         <v>0.58850000000000002</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z29" s="5">
         <v>0.29770000000000002</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA29" s="5">
         <v>0.59260000000000002</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB29" s="5">
         <v>0.3155</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AC29" s="5">
         <v>0.58689999999999998</v>
       </c>
-      <c r="AD29" s="8">
+      <c r="AD29" s="5">
         <v>0.31430000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.55063999999999991</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.24938000000000002</v>
       </c>
       <c r="I30">
@@ -2258,62 +2386,62 @@
       <c r="R30">
         <v>0.2351</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="5">
         <v>0.55700000000000005</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="5">
         <v>0.26790000000000003</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="5">
         <v>0.55279999999999996</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X30" s="5">
         <v>0.2472</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Y30" s="5">
         <v>0.55030000000000001</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="5">
         <v>0.2419</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AA30" s="5">
         <v>0.53959999999999997</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB30" s="5">
         <v>0.17019999999999999</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="5">
         <v>0.55710000000000004</v>
       </c>
-      <c r="AD30" s="8">
+      <c r="AD30" s="5">
         <v>0.2576</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.54548000000000008</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.17392000000000002</v>
       </c>
       <c r="I31">
@@ -2346,62 +2474,62 @@
       <c r="R31">
         <v>0.19650000000000001</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U31" s="5">
         <v>0.55259999999999998</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="5">
         <v>0.18920000000000001</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W31" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X31" s="5">
         <v>0.2087</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y31" s="5">
         <v>0.54649999999999999</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z31" s="5">
         <v>0.184</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AA31" s="5">
         <v>0.55100000000000005</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB31" s="5">
         <v>0.1925</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AC31" s="5">
         <v>0.54869999999999997</v>
       </c>
-      <c r="AD31" s="8">
+      <c r="AD31" s="5">
         <v>0.14219999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.60806000000000004</v>
       </c>
       <c r="H32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.27073999999999998</v>
       </c>
       <c r="I32">
@@ -2434,62 +2562,62 @@
       <c r="R32">
         <v>0.2742</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="5">
         <v>0.6038</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="5">
         <v>0.2616</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="5">
         <v>0.60970000000000002</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="5">
         <v>0.25940000000000002</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="5">
         <v>0.60729999999999995</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="5">
         <v>0.26369999999999999</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="5">
         <v>0.60550000000000004</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AB32" s="5">
         <v>0.26150000000000001</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AC32" s="5">
         <v>0.60560000000000003</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="5">
         <v>0.28010000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.549396</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="12">AVERAGE(J33,L33,N33,O33,R33)</f>
+        <f t="shared" ref="H33" si="16">AVERAGE(J33,L33,N33,O33,R33)</f>
         <v>0.24528</v>
       </c>
       <c r="I33">
@@ -2522,62 +2650,62 @@
       <c r="R33">
         <v>0.14940000000000001</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="5">
         <v>0.54620000000000002</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="5">
         <v>0.1535</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="5">
         <v>0.54269999999999996</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X33" s="5">
         <v>0.2394</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Y33" s="5">
         <v>0.55159999999999998</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="5">
         <v>0.20250000000000001</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="5">
         <v>0.54630000000000001</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AB33" s="5">
         <v>0.1535</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AC33" s="5">
         <v>0.54090000000000005</v>
       </c>
-      <c r="AD33" s="8">
+      <c r="AD33" s="5">
         <v>0.19009999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.54974000000000001</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="13">AVERAGE(J34,L34,N34,P34,R34)</f>
+        <f t="shared" ref="H34" si="17">AVERAGE(J34,L34,N34,P34,R34)</f>
         <v>0.18650000000000003</v>
       </c>
       <c r="I34">
@@ -2610,34 +2738,34 @@
       <c r="R34">
         <v>0.19900000000000001</v>
       </c>
-      <c r="U34" s="8">
+      <c r="U34" s="5">
         <v>0.54669999999999996</v>
       </c>
-      <c r="V34" s="8">
+      <c r="V34" s="5">
         <v>0.16</v>
       </c>
-      <c r="W34" s="8">
+      <c r="W34" s="5">
         <v>0.54900000000000004</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="5">
         <v>0.21340000000000001</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Y34" s="5">
         <v>0.55079999999999996</v>
       </c>
-      <c r="Z34" s="8">
+      <c r="Z34" s="5">
         <v>0.1797</v>
       </c>
-      <c r="AA34" s="8">
+      <c r="AA34" s="5">
         <v>0.54769999999999996</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AB34" s="5">
         <v>0.1673</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AC34" s="5">
         <v>0.54</v>
       </c>
-      <c r="AD34" s="8">
+      <c r="AD34" s="5">
         <v>0.15909999999999999</v>
       </c>
     </row>
@@ -2661,11 +2789,11 @@
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G47" si="14">AVERAGE(I35,K35,M35,O35,Q35)</f>
+        <f t="shared" ref="G35:G47" si="18">AVERAGE(I35,K35,M35,O35,Q35)</f>
         <v>0.58864000000000005</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H38" si="15">AVERAGE(J35,L35,N35,P35,R35)</f>
+        <f t="shared" ref="H35:H38" si="19">AVERAGE(J35,L35,N35,P35,R35)</f>
         <v>0.30962000000000001</v>
       </c>
       <c r="I35">
@@ -2719,11 +2847,11 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.64558000000000004</v>
       </c>
       <c r="H36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.23652000000000001</v>
       </c>
       <c r="I36">
@@ -2777,11 +2905,11 @@
         <v>26</v>
       </c>
       <c r="G37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63956000000000002</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.22328000000000001</v>
       </c>
       <c r="I37">
@@ -2835,11 +2963,11 @@
         <v>28</v>
       </c>
       <c r="G38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63627999999999996</v>
       </c>
       <c r="H38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.26022000000000001</v>
       </c>
       <c r="I38">
@@ -2893,11 +3021,11 @@
         <v>29</v>
       </c>
       <c r="G39" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" t="e">
-        <f t="shared" ref="H39" si="16">AVERAGE(J39,L39,N39,O39,R39)</f>
+        <f t="shared" ref="H39" si="20">AVERAGE(J39,L39,N39,O39,R39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2921,11 +3049,11 @@
         <v>30</v>
       </c>
       <c r="G40" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" t="e">
-        <f t="shared" ref="H40" si="17">AVERAGE(J40,L40,N40,P40,R40)</f>
+        <f t="shared" ref="H40" si="21">AVERAGE(J40,L40,N40,P40,R40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2953,7 +3081,7 @@
         <v>0.56172</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H45" si="18">AVERAGE(J42,L42,N42,P42,R42)</f>
+        <f t="shared" ref="H42:H45" si="22">AVERAGE(J42,L42,N42,P42,R42)</f>
         <v>0.30662</v>
       </c>
       <c r="I42">
@@ -2986,30 +3114,30 @@
       <c r="R42">
         <v>0.31359999999999999</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="5">
         <v>0.56730000000000003</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="5">
         <v>0.34310000000000002</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="5">
         <v>0.5645</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X42" s="5">
         <v>0.31590000000000001</v>
       </c>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8">
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5">
         <v>0.57220000000000004</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AB42" s="5">
         <v>0.33950000000000002</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AC42" s="5">
         <v>0.56579999999999997</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AD42" s="5">
         <v>0.31830000000000003</v>
       </c>
     </row>
@@ -3033,11 +3161,11 @@
         <v>37</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G45" si="19">AVERAGE(I43,K43,M43,O43,Q43)</f>
+        <f t="shared" ref="G43:G45" si="23">AVERAGE(I43,K43,M43,O43,Q43)</f>
         <v>0.55854000000000004</v>
       </c>
       <c r="H43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.21469999999999997</v>
       </c>
       <c r="I43">
@@ -3070,34 +3198,34 @@
       <c r="R43">
         <v>0.185</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="5">
         <v>0.56069999999999998</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V43" s="5">
         <v>0.17710000000000001</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W43" s="5">
         <v>0.56589999999999996</v>
       </c>
-      <c r="X43" s="8">
+      <c r="X43" s="5">
         <v>0.2432</v>
       </c>
-      <c r="Y43" s="8">
+      <c r="Y43" s="5">
         <v>0.5605</v>
       </c>
-      <c r="Z43" s="8">
+      <c r="Z43" s="5">
         <v>0.25059999999999999</v>
       </c>
-      <c r="AA43" s="8">
+      <c r="AA43" s="5">
         <v>0.55179999999999996</v>
       </c>
-      <c r="AB43" s="8">
+      <c r="AB43" s="5">
         <v>0.18210000000000001</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AC43" s="5">
         <v>0.55779999999999996</v>
       </c>
-      <c r="AD43" s="8">
+      <c r="AD43" s="5">
         <v>0.17399999999999999</v>
       </c>
     </row>
@@ -3121,11 +3249,11 @@
         <v>38</v>
       </c>
       <c r="G44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.54659999999999997</v>
       </c>
       <c r="H44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.16470000000000001</v>
       </c>
       <c r="I44">
@@ -3158,34 +3286,34 @@
       <c r="R44">
         <v>0.18540000000000001</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="5">
         <v>0.54690000000000005</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="5">
         <v>0.17019999999999999</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="5">
         <v>0.5534</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="5">
         <v>0.1699</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Y44" s="5">
         <v>0.5403</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="Z44" s="5">
         <v>0.185</v>
       </c>
-      <c r="AA44" s="8">
+      <c r="AA44" s="5">
         <v>0.54669999999999996</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AB44" s="5">
         <v>0.1653</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AC44" s="5">
         <v>0.54090000000000005</v>
       </c>
-      <c r="AD44" s="8">
+      <c r="AD44" s="5">
         <v>0.1757</v>
       </c>
     </row>
@@ -3209,11 +3337,11 @@
         <v>39</v>
       </c>
       <c r="G45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.61746000000000012</v>
       </c>
       <c r="H45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.25760000000000005</v>
       </c>
       <c r="I45">
@@ -3246,24 +3374,24 @@
       <c r="R45">
         <v>0.25490000000000002</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="5">
         <v>0.62429999999999997</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="5">
         <v>0.27410000000000001</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="5">
         <v>0.61819999999999997</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X45" s="5">
         <v>0.28320000000000001</v>
       </c>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="1" t="s">
@@ -3285,11 +3413,11 @@
         <v>40</v>
       </c>
       <c r="G46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54699999999999993</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H47" si="20">AVERAGE(J46,L46,N46,P46,R46)</f>
+        <f t="shared" ref="H46:H47" si="24">AVERAGE(J46,L46,N46,P46,R46)</f>
         <v>0.17442000000000002</v>
       </c>
       <c r="I46">
@@ -3343,11 +3471,11 @@
         <v>41</v>
       </c>
       <c r="G47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54930000000000001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.19502000000000003</v>
       </c>
       <c r="I47">
@@ -3405,7 +3533,7 @@
         <v>0.60329999999999995</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="G47:H50" si="21">AVERAGE(J48,L48,N48,P48,R48)</f>
+        <f t="shared" ref="G48:H50" si="25">AVERAGE(J48,L48,N48,P48,R48)</f>
         <v>0.31328000000000006</v>
       </c>
       <c r="I48">
@@ -3463,7 +3591,7 @@
         <v>#REF!</v>
       </c>
       <c r="H49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.22919999999999999</v>
       </c>
       <c r="I49">
@@ -3517,11 +3645,11 @@
         <v>38</v>
       </c>
       <c r="G50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.64911999999999992</v>
       </c>
       <c r="H50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.22191999999999998</v>
       </c>
       <c r="I50">

--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75690C-B8E7-4E09-BDF2-121F09CB0C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1938E8F-494C-40D7-A361-72E1E9AF8277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="1200" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
   <si>
     <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,9 +174,6 @@
   <si>
     <t>ml-20m</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer learning</t>
   </si>
   <si>
     <t>t2v_normal_sasrec</t>
@@ -211,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,19 +221,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,13 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,9 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -638,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -951,11 +933,11 @@
         <v>24</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G12" si="4">AVERAGE(I7,K7,M7,O7,Q7)</f>
+        <f t="shared" ref="G7:G10" si="4">AVERAGE(I7,K7,M7,O7,Q7)</f>
         <v>0.44874000000000003</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H12" si="5">AVERAGE(J7,L7,N7,P7,R7)</f>
+        <f t="shared" ref="H7:H10" si="5">AVERAGE(J7,L7,N7,P7,R7)</f>
         <v>0.27086000000000005</v>
       </c>
       <c r="I7">
@@ -1164,30 +1146,30 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G15" si="6">AVERAGE(I11,K11,M11,O11,Q11)</f>
+        <f t="shared" ref="G11:G12" si="6">AVERAGE(I11,K11,M11,O11,Q11)</f>
         <v>0.44658000000000009</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H15" si="7">AVERAGE(J11,L11,N11,P11,R11)</f>
+        <f t="shared" ref="H11:H12" si="7">AVERAGE(J11,L11,N11,P11,R11)</f>
         <v>0.26685999999999999</v>
       </c>
       <c r="I11">
@@ -1252,22 +1234,22 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12">
@@ -1310,22 +1292,22 @@
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G13">
@@ -1368,22 +1350,22 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G14">
@@ -1456,22 +1438,22 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G15">
@@ -1544,22 +1526,22 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16">
@@ -1632,22 +1614,22 @@
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G17">
@@ -2242,22 +2224,22 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G29">
@@ -2298,54 +2280,54 @@
       <c r="R29">
         <v>0.30049999999999999</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="3">
         <v>0.59419999999999995</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="3">
         <v>0.31330000000000002</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" s="3">
         <v>0.59089999999999998</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" s="3">
         <v>0.3115</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Y29" s="3">
         <v>0.58850000000000002</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="Z29" s="3">
         <v>0.29770000000000002</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="AA29" s="3">
         <v>0.59260000000000002</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29" s="3">
         <v>0.3155</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AC29" s="3">
         <v>0.58689999999999998</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AD29" s="3">
         <v>0.31430000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G30">
@@ -2386,54 +2368,54 @@
       <c r="R30">
         <v>0.2351</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <v>0.26790000000000003</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30" s="3">
         <v>0.55279999999999996</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30" s="3">
         <v>0.2472</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30" s="3">
         <v>0.55030000000000001</v>
       </c>
-      <c r="Z30" s="5">
+      <c r="Z30" s="3">
         <v>0.2419</v>
       </c>
-      <c r="AA30" s="5">
+      <c r="AA30" s="3">
         <v>0.53959999999999997</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AB30" s="3">
         <v>0.17019999999999999</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AC30" s="3">
         <v>0.55710000000000004</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AD30" s="3">
         <v>0.2576</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G31">
@@ -2474,54 +2456,54 @@
       <c r="R31">
         <v>0.19650000000000001</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="3">
         <v>0.55259999999999998</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="3">
         <v>0.18920000000000001</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="3">
         <v>0.54430000000000001</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="3">
         <v>0.2087</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" s="3">
         <v>0.54649999999999999</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="Z31" s="3">
         <v>0.184</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AA31" s="3">
         <v>0.55100000000000005</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31" s="3">
         <v>0.1925</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AC31" s="3">
         <v>0.54869999999999997</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AD31" s="3">
         <v>0.14219999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G32">
@@ -2562,54 +2544,54 @@
       <c r="R32">
         <v>0.2742</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="3">
         <v>0.6038</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="3">
         <v>0.2616</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="3">
         <v>0.60970000000000002</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="3">
         <v>0.25940000000000002</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="3">
         <v>0.60729999999999995</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="Z32" s="3">
         <v>0.26369999999999999</v>
       </c>
-      <c r="AA32" s="5">
+      <c r="AA32" s="3">
         <v>0.60550000000000004</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AB32" s="3">
         <v>0.26150000000000001</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AC32" s="3">
         <v>0.60560000000000003</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AD32" s="3">
         <v>0.28010000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G33">
@@ -2650,54 +2632,54 @@
       <c r="R33">
         <v>0.14940000000000001</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="3">
         <v>0.54620000000000002</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="3">
         <v>0.1535</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33" s="3">
         <v>0.54269999999999996</v>
       </c>
-      <c r="X33" s="5">
+      <c r="X33" s="3">
         <v>0.2394</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Y33" s="3">
         <v>0.55159999999999998</v>
       </c>
-      <c r="Z33" s="5">
+      <c r="Z33" s="3">
         <v>0.20250000000000001</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="AA33" s="3">
         <v>0.54630000000000001</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AB33" s="3">
         <v>0.1535</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AC33" s="3">
         <v>0.54090000000000005</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AD33" s="3">
         <v>0.19009999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G34">
@@ -2738,34 +2720,34 @@
       <c r="R34">
         <v>0.19900000000000001</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>0.54669999999999996</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="3">
         <v>0.16</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="3">
         <v>0.54900000000000004</v>
       </c>
-      <c r="X34" s="5">
+      <c r="X34" s="3">
         <v>0.21340000000000001</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="3">
         <v>0.55079999999999996</v>
       </c>
-      <c r="Z34" s="5">
+      <c r="Z34" s="3">
         <v>0.1797</v>
       </c>
-      <c r="AA34" s="5">
+      <c r="AA34" s="3">
         <v>0.54769999999999996</v>
       </c>
-      <c r="AB34" s="5">
+      <c r="AB34" s="3">
         <v>0.1673</v>
       </c>
-      <c r="AC34" s="5">
+      <c r="AC34" s="3">
         <v>0.54</v>
       </c>
-      <c r="AD34" s="5">
+      <c r="AD34" s="3">
         <v>0.15909999999999999</v>
       </c>
     </row>
@@ -2789,7 +2771,7 @@
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G47" si="18">AVERAGE(I35,K35,M35,O35,Q35)</f>
+        <f t="shared" ref="G35:G49" si="18">AVERAGE(I35,K35,M35,O35,Q35)</f>
         <v>0.58864000000000005</v>
       </c>
       <c r="H35">
@@ -2885,7 +2867,7 @@
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" ht="16.5" customHeight="1">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -3020,13 +3002,43 @@
       <c r="F39" t="s">
         <v>29</v>
       </c>
-      <c r="G39" t="e">
+      <c r="G39">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" t="e">
+        <v>0.63756000000000002</v>
+      </c>
+      <c r="H39">
         <f t="shared" ref="H39" si="20">AVERAGE(J39,L39,N39,O39,R39)</f>
-        <v>#DIV/0!</v>
+        <v>0.30768000000000006</v>
+      </c>
+      <c r="I39">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="J39">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="L39">
+        <v>0.23</v>
+      </c>
+      <c r="M39">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="N39">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="P39">
+        <v>0.2195</v>
+      </c>
+      <c r="Q39">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="R39">
+        <v>0.217</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -3048,13 +3060,43 @@
       <c r="F40" t="s">
         <v>30</v>
       </c>
-      <c r="G40" t="e">
+      <c r="G40">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" t="e">
+        <v>0.63946000000000003</v>
+      </c>
+      <c r="H40">
         <f t="shared" ref="H40" si="21">AVERAGE(J40,L40,N40,P40,R40)</f>
-        <v>#DIV/0!</v>
+        <v>0.23174</v>
+      </c>
+      <c r="I40">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="J40">
+        <v>0.2399</v>
+      </c>
+      <c r="K40">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.2409</v>
+      </c>
+      <c r="M40">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.2278</v>
+      </c>
+      <c r="O40">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="P40">
+        <v>0.2412</v>
+      </c>
+      <c r="Q40">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="R40">
+        <v>0.2089</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -3065,16 +3107,16 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>1E-3</v>
+      </c>
+      <c r="F42" t="s">
         <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>1E-3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
       </c>
       <c r="G42">
         <f>AVERAGE(I42,K42,M42,O42,Q42)</f>
@@ -3114,30 +3156,30 @@
       <c r="R42">
         <v>0.31359999999999999</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="3">
         <v>0.56730000000000003</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="3">
         <v>0.34310000000000002</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="3">
         <v>0.5645</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X42" s="3">
         <v>0.31590000000000001</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3">
         <v>0.57220000000000004</v>
       </c>
-      <c r="AB42" s="5">
+      <c r="AB42" s="3">
         <v>0.33950000000000002</v>
       </c>
-      <c r="AC42" s="5">
+      <c r="AC42" s="3">
         <v>0.56579999999999997</v>
       </c>
-      <c r="AD42" s="5">
+      <c r="AD42" s="3">
         <v>0.31830000000000003</v>
       </c>
     </row>
@@ -3149,7 +3191,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -3158,7 +3200,7 @@
         <v>1E-3</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:G45" si="23">AVERAGE(I43,K43,M43,O43,Q43)</f>
@@ -3198,34 +3240,34 @@
       <c r="R43">
         <v>0.185</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="3">
         <v>0.56069999999999998</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="3">
         <v>0.17710000000000001</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43" s="3">
         <v>0.56589999999999996</v>
       </c>
-      <c r="X43" s="5">
+      <c r="X43" s="3">
         <v>0.2432</v>
       </c>
-      <c r="Y43" s="5">
+      <c r="Y43" s="3">
         <v>0.5605</v>
       </c>
-      <c r="Z43" s="5">
+      <c r="Z43" s="3">
         <v>0.25059999999999999</v>
       </c>
-      <c r="AA43" s="5">
+      <c r="AA43" s="3">
         <v>0.55179999999999996</v>
       </c>
-      <c r="AB43" s="5">
+      <c r="AB43" s="3">
         <v>0.18210000000000001</v>
       </c>
-      <c r="AC43" s="5">
+      <c r="AC43" s="3">
         <v>0.55779999999999996</v>
       </c>
-      <c r="AD43" s="5">
+      <c r="AD43" s="3">
         <v>0.17399999999999999</v>
       </c>
     </row>
@@ -3237,7 +3279,7 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -3246,7 +3288,7 @@
         <v>1E-3</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <f t="shared" si="23"/>
@@ -3286,34 +3328,34 @@
       <c r="R44">
         <v>0.18540000000000001</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="3">
         <v>0.54690000000000005</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="3">
         <v>0.17019999999999999</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44" s="3">
         <v>0.5534</v>
       </c>
-      <c r="X44" s="5">
+      <c r="X44" s="3">
         <v>0.1699</v>
       </c>
-      <c r="Y44" s="5">
+      <c r="Y44" s="3">
         <v>0.5403</v>
       </c>
-      <c r="Z44" s="5">
+      <c r="Z44" s="3">
         <v>0.185</v>
       </c>
-      <c r="AA44" s="5">
+      <c r="AA44" s="3">
         <v>0.54669999999999996</v>
       </c>
-      <c r="AB44" s="5">
+      <c r="AB44" s="3">
         <v>0.1653</v>
       </c>
-      <c r="AC44" s="5">
+      <c r="AC44" s="3">
         <v>0.54090000000000005</v>
       </c>
-      <c r="AD44" s="5">
+      <c r="AD44" s="3">
         <v>0.1757</v>
       </c>
     </row>
@@ -3325,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -3334,7 +3376,7 @@
         <v>1E-3</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
@@ -3374,34 +3416,34 @@
       <c r="R45">
         <v>0.25490000000000002</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="3">
         <v>0.62429999999999997</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="3">
         <v>0.27410000000000001</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="3">
         <v>0.61819999999999997</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X45" s="3">
         <v>0.28320000000000001</v>
       </c>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>27</v>
@@ -3410,7 +3452,7 @@
         <v>1E-3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <f t="shared" si="18"/>
@@ -3452,14 +3494,14 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>27</v>
@@ -3468,7 +3510,7 @@
         <v>1E-3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <f t="shared" si="18"/>
@@ -3517,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -3526,7 +3568,7 @@
         <v>1E-3</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <f>AVERAGE(I48,K48,M49,O48,Q48)</f>
@@ -3575,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -3584,11 +3626,11 @@
         <v>1E-3</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="e">
-        <f>AVERAGE(I49,K49,#REF!,O49,Q49)</f>
-        <v>#REF!</v>
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="18"/>
+        <v>0.65564</v>
       </c>
       <c r="H49">
         <f t="shared" si="25"/>
@@ -3633,7 +3675,7 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -3642,7 +3684,7 @@
         <v>1E-3</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <f t="shared" si="25"/>
@@ -3691,7 +3733,7 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -3700,15 +3742,15 @@
         <v>1E-3</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <f>AVERAGE(I51,K51,M51,O51,Q51)</f>
-        <v>0.64739999999999998</v>
+        <v>0.65264</v>
       </c>
       <c r="H51">
         <f>AVERAGE(J51,L51,N51,O51,R51)</f>
-        <v>0.24360000000000001</v>
+        <v>0.33106000000000002</v>
       </c>
       <c r="I51">
         <v>0.64739999999999998</v>
@@ -3716,16 +3758,40 @@
       <c r="J51">
         <v>0.24360000000000001</v>
       </c>
+      <c r="K51">
+        <v>0.6573</v>
+      </c>
+      <c r="L51">
+        <v>0.2596</v>
+      </c>
+      <c r="M51">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="N51">
+        <v>0.2445</v>
+      </c>
+      <c r="O51">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="P51">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.25490000000000002</v>
+      </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>27</v>
@@ -3734,15 +3800,45 @@
         <v>1E-3</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" t="e">
+        <v>39</v>
+      </c>
+      <c r="G52">
         <f>AVERAGE(I52,K52,M52,O52,Q52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" t="e">
+        <v>0.64682000000000006</v>
+      </c>
+      <c r="H52">
         <f>AVERAGE(J52,L52,N52,P52,R52)</f>
-        <v>#DIV/0!</v>
+        <v>0.22023999999999999</v>
+      </c>
+      <c r="I52">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="J52">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.2198</v>
+      </c>
+      <c r="M52">
+        <v>0.6472</v>
+      </c>
+      <c r="N52">
+        <v>0.2152</v>
+      </c>
+      <c r="O52">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="P52">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="R52">
+        <v>0.21160000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3753,7 +3849,7 @@
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>27</v>
@@ -3762,15 +3858,45 @@
         <v>1E-3</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" t="e">
+        <v>40</v>
+      </c>
+      <c r="G53">
         <f>AVERAGE(I53,K53,M53,O53,Q53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" t="e">
+        <v>0.64783999999999997</v>
+      </c>
+      <c r="H53">
         <f>AVERAGE(J53,L53,N53,P53,R53)</f>
-        <v>#DIV/0!</v>
+        <v>0.21973999999999999</v>
+      </c>
+      <c r="I53">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="J53">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.6472</v>
+      </c>
+      <c r="L53">
+        <v>0.2243</v>
+      </c>
+      <c r="M53">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="N53">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="P53">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="R53">
+        <v>0.22600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Formal_Exp.xlsx
+++ b/Formal_Exp.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yunlong\Desktop\Recommender-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1938E8F-494C-40D7-A361-72E1E9AF8277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBE906A-5F82-49DD-BF92-CA94077F479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="1200" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19140" yWindow="3040" windowWidth="19230" windowHeight="10880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="69">
   <si>
     <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,12 +205,115 @@
     <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Coverage Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traing time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SASRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All action </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense all action</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Dense all action+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined+ </t>
+  </si>
+  <si>
+    <t>Training Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SASRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense all action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense all action+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combined+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-SASRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-All Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Dense all action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Combined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Dense all action+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Combined+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +341,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,17 +379,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,24 +673,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH65" sqref="AH65:AI65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="20" max="21" width="17.625" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="33" max="33" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -622,8 +752,35 @@
       <c r="S1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -643,11 +800,11 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(I2,K2,M2,O2,Q2)</f>
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(I2,K2,M2,O2,Q2)</f>
         <v>0.46327999999999997</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(J2,L2,N2,P2,R2)</f>
+        <f t="shared" ref="H2:H12" si="1">AVERAGE(J2,L2,N2,P2,R2)</f>
         <v>0.36129999999999995</v>
       </c>
       <c r="I2">
@@ -680,8 +837,30 @@
       <c r="R2">
         <v>0.35070000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="T2">
+        <f t="shared" ref="T2:T20" si="2">AVERAGE(V2,W2,X2,Y2,Z2)</f>
+        <v>232</v>
+      </c>
+      <c r="U2">
+        <v>1.68</v>
+      </c>
+      <c r="V2">
+        <v>360</v>
+      </c>
+      <c r="W2">
+        <v>240</v>
+      </c>
+      <c r="X2">
+        <v>200</v>
+      </c>
+      <c r="Y2">
+        <v>220</v>
+      </c>
+      <c r="Z2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -701,11 +880,11 @@
         <v>24</v>
       </c>
       <c r="G3">
-        <f>AVERAGE(I3,K3,M3,O3,Q3)</f>
+        <f t="shared" si="0"/>
         <v>0.43373999999999996</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(J3,L3,N3,P3,R3)</f>
+        <f t="shared" si="1"/>
         <v>0.26761999999999997</v>
       </c>
       <c r="I3">
@@ -738,8 +917,30 @@
       <c r="R3">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+      <c r="U3">
+        <v>22.5</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>14</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -759,11 +960,11 @@
         <v>25</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="0">AVERAGE(I4,K4,M4,O4,Q4)</f>
+        <f t="shared" si="0"/>
         <v>0.34329999999999999</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="1">AVERAGE(J4,L4,N4,P4,R4)</f>
+        <f t="shared" si="1"/>
         <v>0.34062000000000003</v>
       </c>
       <c r="I4">
@@ -796,8 +997,30 @@
       <c r="R4">
         <v>0.3402</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="U4">
+        <v>3.51</v>
+      </c>
+      <c r="V4">
+        <v>340</v>
+      </c>
+      <c r="W4">
+        <v>320</v>
+      </c>
+      <c r="X4">
+        <v>140</v>
+      </c>
+      <c r="Y4">
+        <v>400</v>
+      </c>
+      <c r="Z4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -854,8 +1077,30 @@
       <c r="R5">
         <v>0.30009999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="U5">
+        <v>4.12</v>
+      </c>
+      <c r="V5">
+        <v>240</v>
+      </c>
+      <c r="W5">
+        <v>140</v>
+      </c>
+      <c r="X5">
+        <v>180</v>
+      </c>
+      <c r="Y5">
+        <v>260</v>
+      </c>
+      <c r="Z5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -875,11 +1120,11 @@
         <v>23</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="2">AVERAGE(I6,K6,M6,O6,Q6)</f>
+        <f t="shared" si="0"/>
         <v>0.46148</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="3">AVERAGE(J6,L6,N6,P6,R6)</f>
+        <f t="shared" si="1"/>
         <v>0.35731999999999997</v>
       </c>
       <c r="I6">
@@ -912,8 +1157,30 @@
       <c r="R6">
         <v>0.36270000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="U6">
+        <v>1.53</v>
+      </c>
+      <c r="V6">
+        <v>420</v>
+      </c>
+      <c r="W6">
+        <v>280</v>
+      </c>
+      <c r="X6">
+        <v>420</v>
+      </c>
+      <c r="Y6">
+        <v>280</v>
+      </c>
+      <c r="Z6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -933,11 +1200,11 @@
         <v>24</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G10" si="4">AVERAGE(I7,K7,M7,O7,Q7)</f>
+        <f t="shared" si="0"/>
         <v>0.44874000000000003</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H10" si="5">AVERAGE(J7,L7,N7,P7,R7)</f>
+        <f t="shared" si="1"/>
         <v>0.27086000000000005</v>
       </c>
       <c r="I7">
@@ -970,8 +1237,30 @@
       <c r="R7">
         <v>0.26519999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>20.51</v>
+      </c>
+      <c r="V7">
+        <v>42</v>
+      </c>
+      <c r="W7">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>12</v>
+      </c>
+      <c r="Y7">
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -991,11 +1280,11 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.34588000000000008</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.35052</v>
       </c>
       <c r="I8">
@@ -1028,8 +1317,30 @@
       <c r="R8">
         <v>0.34920000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="U8">
+        <v>2.48</v>
+      </c>
+      <c r="V8">
+        <v>440</v>
+      </c>
+      <c r="W8">
+        <v>240</v>
+      </c>
+      <c r="X8">
+        <v>420</v>
+      </c>
+      <c r="Y8">
+        <v>400</v>
+      </c>
+      <c r="Z8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1049,11 +1360,11 @@
         <v>26</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.22976000000000002</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.27688000000000001</v>
       </c>
       <c r="I9">
@@ -1086,8 +1397,30 @@
       <c r="R9">
         <v>0.27779999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>3.5</v>
+      </c>
+      <c r="V9">
+        <v>120</v>
+      </c>
+      <c r="W9">
+        <v>120</v>
+      </c>
+      <c r="X9">
+        <v>80</v>
+      </c>
+      <c r="Y9">
+        <v>80</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1107,11 +1440,11 @@
         <v>23</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.45484000000000002</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.35233999999999999</v>
       </c>
       <c r="I10">
@@ -1144,8 +1477,30 @@
       <c r="R10">
         <v>0.35449999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="U10">
+        <v>1.52</v>
+      </c>
+      <c r="V10">
+        <v>340</v>
+      </c>
+      <c r="W10">
+        <v>160</v>
+      </c>
+      <c r="X10">
+        <v>340</v>
+      </c>
+      <c r="Y10">
+        <v>260</v>
+      </c>
+      <c r="Z10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,11 +1520,11 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G12" si="6">AVERAGE(I11,K11,M11,O11,Q11)</f>
+        <f t="shared" si="0"/>
         <v>0.44658000000000009</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H12" si="7">AVERAGE(J11,L11,N11,P11,R11)</f>
+        <f t="shared" si="1"/>
         <v>0.26685999999999999</v>
       </c>
       <c r="I11">
@@ -1202,38 +1557,30 @@
       <c r="R11">
         <v>0.26169999999999999</v>
       </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>13.2</v>
+      </c>
       <c r="U11">
-        <v>0.45029999999999998</v>
+        <v>20.5</v>
       </c>
       <c r="V11">
-        <v>0.27139999999999997</v>
+        <v>14</v>
       </c>
       <c r="W11">
-        <v>0.44379999999999997</v>
+        <v>10</v>
       </c>
       <c r="X11">
-        <v>0.28360000000000002</v>
+        <v>16</v>
       </c>
       <c r="Y11">
-        <v>0.44979999999999998</v>
+        <v>6</v>
       </c>
       <c r="Z11">
-        <v>0.28129999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>0.45340000000000003</v>
-      </c>
-      <c r="AB11">
-        <v>0.27810000000000001</v>
-      </c>
-      <c r="AC11">
-        <v>0.45140000000000002</v>
-      </c>
-      <c r="AD11">
-        <v>0.2772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1253,11 +1600,11 @@
         <v>25</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.33402000000000004</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.32728000000000002</v>
       </c>
       <c r="I12">
@@ -1290,8 +1637,30 @@
       <c r="R12">
         <v>0.33289999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="U12">
+        <v>3.32</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>280</v>
+      </c>
+      <c r="X12">
+        <v>200</v>
+      </c>
+      <c r="Y12">
+        <v>200</v>
+      </c>
+      <c r="Z12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1311,11 +1680,11 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G18" si="8">AVERAGE(I13,K13,M13,O13,Q13)</f>
+        <f t="shared" ref="G13:G18" si="3">AVERAGE(I13,K13,M13,O13,Q13)</f>
         <v>0.19803999999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H18" si="9">AVERAGE(J13,L13,N13,P13,R13)</f>
+        <f t="shared" ref="H13:H18" si="4">AVERAGE(J13,L13,N13,P13,R13)</f>
         <v>0.24538000000000001</v>
       </c>
       <c r="I13">
@@ -1348,8 +1717,30 @@
       <c r="R13">
         <v>0.29920000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="U13">
+        <v>3.92</v>
+      </c>
+      <c r="V13">
+        <v>60</v>
+      </c>
+      <c r="W13">
+        <v>120</v>
+      </c>
+      <c r="X13">
+        <v>220</v>
+      </c>
+      <c r="Y13">
+        <v>120</v>
+      </c>
+      <c r="Z13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,11 +1760,11 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.45773999999999998</v>
       </c>
       <c r="H14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.36146</v>
       </c>
       <c r="I14">
@@ -1406,38 +1797,30 @@
       <c r="R14">
         <v>0.36009999999999998</v>
       </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>436</v>
+      </c>
       <c r="U14">
-        <v>0.44590000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>0.3528</v>
+        <v>460</v>
       </c>
       <c r="W14">
-        <v>0.45550000000000002</v>
+        <v>440</v>
       </c>
       <c r="X14">
-        <v>0.34749999999999998</v>
+        <v>400</v>
       </c>
       <c r="Y14">
-        <v>0.4546</v>
+        <v>400</v>
       </c>
       <c r="Z14">
-        <v>0.36770000000000003</v>
-      </c>
-      <c r="AA14">
-        <v>0.4546</v>
-      </c>
-      <c r="AB14">
-        <v>0.35539999999999999</v>
-      </c>
-      <c r="AC14">
-        <v>0.4587</v>
-      </c>
-      <c r="AD14">
-        <v>0.36070000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1457,11 +1840,11 @@
         <v>24</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.44579999999999992</v>
       </c>
       <c r="H15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.26197999999999999</v>
       </c>
       <c r="I15">
@@ -1494,38 +1877,30 @@
       <c r="R15">
         <v>0.26840000000000003</v>
       </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
+      </c>
       <c r="U15">
-        <v>0.44700000000000001</v>
+        <v>20.52</v>
       </c>
       <c r="V15">
-        <v>0.2646</v>
+        <v>46</v>
       </c>
       <c r="W15">
-        <v>0.44390000000000002</v>
+        <v>30</v>
       </c>
       <c r="X15">
-        <v>0.25969999999999999</v>
+        <v>36</v>
       </c>
       <c r="Y15">
-        <v>0.44629999999999997</v>
+        <v>28</v>
       </c>
       <c r="Z15">
-        <v>0.2641</v>
-      </c>
-      <c r="AA15">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>0.4456</v>
-      </c>
-      <c r="AD15">
-        <v>0.26319999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1545,11 +1920,11 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.3412</v>
       </c>
       <c r="H16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.34338000000000002</v>
       </c>
       <c r="I16">
@@ -1582,38 +1957,30 @@
       <c r="R16">
         <v>0.35010000000000002</v>
       </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
       <c r="U16">
-        <v>0.3458</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="V16">
-        <v>0.35260000000000002</v>
+        <v>300</v>
       </c>
       <c r="W16">
-        <v>0.3397</v>
+        <v>300</v>
       </c>
       <c r="X16">
-        <v>0.34810000000000002</v>
+        <v>260</v>
       </c>
       <c r="Y16">
-        <v>0.34160000000000001</v>
+        <v>420</v>
       </c>
       <c r="Z16">
-        <v>0.34539999999999998</v>
-      </c>
-      <c r="AA16">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="AB16">
-        <v>0.34129999999999999</v>
-      </c>
-      <c r="AC16">
-        <v>0.34410000000000002</v>
-      </c>
-      <c r="AD16">
-        <v>0.35070000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1633,11 +2000,11 @@
         <v>26</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.23044000000000003</v>
       </c>
       <c r="H17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.25462000000000001</v>
       </c>
       <c r="I17">
@@ -1670,38 +2037,37 @@
       <c r="R17">
         <v>0.2737</v>
       </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
       <c r="U17">
-        <v>0.21920000000000001</v>
+        <f>AA17/AB17</f>
+        <v>3.7218125</v>
       </c>
       <c r="V17">
-        <v>0.31559999999999999</v>
+        <v>160</v>
       </c>
       <c r="W17">
-        <v>0.23400000000000001</v>
+        <v>140</v>
       </c>
       <c r="X17">
-        <v>0.24879999999999999</v>
+        <v>100</v>
       </c>
       <c r="Y17">
-        <v>0.224</v>
+        <v>120</v>
       </c>
       <c r="Z17">
-        <v>0.30819999999999997</v>
+        <v>140</v>
       </c>
       <c r="AA17">
-        <v>0.2238</v>
+        <v>595.49</v>
       </c>
       <c r="AB17">
-        <v>0.27629999999999999</v>
-      </c>
-      <c r="AC17">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="AD17">
-        <v>0.26519999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1721,11 +2087,11 @@
         <v>28</v>
       </c>
       <c r="G18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.41098000000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.32982000000000006</v>
       </c>
       <c r="I18">
@@ -1758,8 +2124,37 @@
       <c r="R18">
         <v>0.32790000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U53" si="5">AA18/AB18</f>
+        <v>4.4754230769230769</v>
+      </c>
+      <c r="V18">
+        <v>140</v>
+      </c>
+      <c r="W18">
+        <v>240</v>
+      </c>
+      <c r="X18">
+        <v>260</v>
+      </c>
+      <c r="Y18">
+        <v>140</v>
+      </c>
+      <c r="Z18">
+        <v>120</v>
+      </c>
+      <c r="AA18">
+        <v>1163.6099999999999</v>
+      </c>
+      <c r="AB18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1779,11 +2174,11 @@
         <v>29</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G20" si="10">AVERAGE(I19,K19,M19,O19,Q19)</f>
+        <f>AVERAGE(I19,K19,M19,O19,Q19)</f>
         <v>0.22757999999999998</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H20" si="11">AVERAGE(J19,L19,N19,P19,R19)</f>
+        <f>AVERAGE(J19,L19,N19,P19,R19)</f>
         <v>0.27504000000000001</v>
       </c>
       <c r="I19">
@@ -1816,8 +2211,37 @@
       <c r="R19">
         <v>0.2298</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="V19">
+        <v>120</v>
+      </c>
+      <c r="W19">
+        <v>80</v>
+      </c>
+      <c r="X19">
+        <v>120</v>
+      </c>
+      <c r="Y19">
+        <v>120</v>
+      </c>
+      <c r="Z19">
+        <v>60</v>
+      </c>
+      <c r="AA19">
+        <v>441</v>
+      </c>
+      <c r="AB19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1837,11 +2261,11 @@
         <v>30</v>
       </c>
       <c r="G20">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(I20,K20,M20,O20,Q20)</f>
         <v>0.23416000000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="11"/>
+        <f>AVERAGE(J20,L20,N20,P20,R20)</f>
         <v>0.28657999999999995</v>
       </c>
       <c r="I20">
@@ -1874,8 +2298,37 @@
       <c r="R20">
         <v>0.2339</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>3.657142857142857</v>
+      </c>
+      <c r="V20">
+        <v>80</v>
+      </c>
+      <c r="W20">
+        <v>140</v>
+      </c>
+      <c r="X20">
+        <v>140</v>
+      </c>
+      <c r="Y20">
+        <v>140</v>
+      </c>
+      <c r="Z20">
+        <v>60</v>
+      </c>
+      <c r="AA20">
+        <v>512</v>
+      </c>
+      <c r="AB20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1895,11 +2348,11 @@
         <v>23</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(I22,K22,M22,O22,Q22)</f>
+        <f t="shared" ref="G22:H26" si="6">AVERAGE(I22,K22,M22,O22,Q22)</f>
         <v>0.45464000000000004</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H26" si="12">AVERAGE(J22,L22,N22,P22,R22)</f>
+        <f t="shared" si="6"/>
         <v>0.3533</v>
       </c>
       <c r="I22">
@@ -1932,8 +2385,37 @@
       <c r="R22">
         <v>0.35920000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="T22">
+        <f t="shared" ref="T22:T27" si="7">AVERAGE(V22,W22,X22,Y22,Z22)</f>
+        <v>81</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>1.5087692307692306</v>
+      </c>
+      <c r="V22">
+        <v>80</v>
+      </c>
+      <c r="W22">
+        <v>125</v>
+      </c>
+      <c r="X22">
+        <v>65</v>
+      </c>
+      <c r="Y22">
+        <v>70</v>
+      </c>
+      <c r="Z22">
+        <v>65</v>
+      </c>
+      <c r="AA22">
+        <v>98.07</v>
+      </c>
+      <c r="AB22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1953,11 +2435,11 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G26" si="13">AVERAGE(I23,K23,M23,O23,Q23)</f>
+        <f t="shared" si="6"/>
         <v>0.45240000000000002</v>
       </c>
       <c r="H23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.31012000000000006</v>
       </c>
       <c r="I23">
@@ -1990,8 +2472,37 @@
       <c r="R23">
         <v>0.31819999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="T23">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="5"/>
+        <v>1.7913043478260871</v>
+      </c>
+      <c r="V23">
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>65</v>
+      </c>
+      <c r="X23">
+        <v>90</v>
+      </c>
+      <c r="Y23">
+        <v>115</v>
+      </c>
+      <c r="Z23">
+        <v>115</v>
+      </c>
+      <c r="AA23">
+        <v>206</v>
+      </c>
+      <c r="AB23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2011,11 +2522,11 @@
         <v>26</v>
       </c>
       <c r="G24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.37038000000000004</v>
       </c>
       <c r="H24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.24702000000000002</v>
       </c>
       <c r="I24">
@@ -2048,8 +2559,37 @@
       <c r="R24">
         <v>0.24709999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="T24">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="5"/>
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="V24">
+        <v>90</v>
+      </c>
+      <c r="W24">
+        <v>115</v>
+      </c>
+      <c r="X24">
+        <v>110</v>
+      </c>
+      <c r="Y24">
+        <v>80</v>
+      </c>
+      <c r="Z24">
+        <v>110</v>
+      </c>
+      <c r="AA24">
+        <v>353.21</v>
+      </c>
+      <c r="AB24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2069,11 +2609,11 @@
         <v>28</v>
       </c>
       <c r="G25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.45548</v>
       </c>
       <c r="H25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.31690000000000002</v>
       </c>
       <c r="I25">
@@ -2106,8 +2646,37 @@
       <c r="R25">
         <v>0.31850000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="T25">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>3.1694</v>
+      </c>
+      <c r="V25">
+        <v>70</v>
+      </c>
+      <c r="W25">
+        <v>70</v>
+      </c>
+      <c r="X25">
+        <v>160</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
+      <c r="Z25">
+        <v>70</v>
+      </c>
+      <c r="AA25">
+        <v>316.94</v>
+      </c>
+      <c r="AB25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2127,11 +2696,11 @@
         <v>29</v>
       </c>
       <c r="G26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.37330000000000002</v>
       </c>
       <c r="H26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.25292000000000003</v>
       </c>
       <c r="I26">
@@ -2164,8 +2733,37 @@
       <c r="R26">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="T26">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>3.3357142857142859</v>
+      </c>
+      <c r="V26">
+        <v>140</v>
+      </c>
+      <c r="W26">
+        <v>120</v>
+      </c>
+      <c r="X26">
+        <v>65</v>
+      </c>
+      <c r="Y26">
+        <v>130</v>
+      </c>
+      <c r="Z26">
+        <v>95</v>
+      </c>
+      <c r="AA26">
+        <v>467</v>
+      </c>
+      <c r="AB26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2222,8 +2820,37 @@
       <c r="R27">
         <v>0.24149999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="T27">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>3.4388888888888891</v>
+      </c>
+      <c r="V27">
+        <v>110</v>
+      </c>
+      <c r="W27">
+        <v>90</v>
+      </c>
+      <c r="X27">
+        <v>120</v>
+      </c>
+      <c r="Y27">
+        <v>130</v>
+      </c>
+      <c r="Z27">
+        <v>95</v>
+      </c>
+      <c r="AA27">
+        <v>309.5</v>
+      </c>
+      <c r="AB27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2242,12 +2869,12 @@
       <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G34" si="14">AVERAGE(I29,K29,M29,O29,Q29)</f>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G34" si="8">AVERAGE(I29,K29,M29,O29,Q29)</f>
         <v>0.5887</v>
       </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H32" si="15">AVERAGE(J29,L29,N29,P29,R29)</f>
+      <c r="H29" s="1">
+        <f>AVERAGE(J29,L29,N29,P29,R29)</f>
         <v>0.30351999999999996</v>
       </c>
       <c r="I29">
@@ -2280,38 +2907,48 @@
       <c r="R29">
         <v>0.30049999999999999</v>
       </c>
-      <c r="U29" s="3">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0.59089999999999998</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0.3115</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.58850000000000002</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0.29770000000000002</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0.59260000000000002</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0.3155</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0.58689999999999998</v>
+      <c r="T29">
+        <f t="shared" ref="T29:T40" si="9">AVERAGE(V29,W29,X29,Y29,Z29)</f>
+        <v>40</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>40.745454545454542</v>
+      </c>
+      <c r="V29">
+        <v>45</v>
+      </c>
+      <c r="W29">
+        <v>35</v>
+      </c>
+      <c r="X29">
+        <v>30</v>
+      </c>
+      <c r="Y29">
+        <v>55</v>
+      </c>
+      <c r="Z29">
+        <v>35</v>
+      </c>
+      <c r="AA29">
+        <v>2241</v>
+      </c>
+      <c r="AB29">
+        <v>55</v>
       </c>
       <c r="AD29" s="3">
-        <v>0.31430000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>12.5</v>
+      </c>
+      <c r="AE29">
+        <f>T29</f>
+        <v>40</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" ref="AF29:AF40" si="10">AD29*AE29</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2331,11 +2968,11 @@
         <v>25</v>
       </c>
       <c r="G30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.55063999999999991</v>
       </c>
       <c r="H30">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(J30,L30,N30,P30,R30)</f>
         <v>0.24938000000000002</v>
       </c>
       <c r="I30">
@@ -2368,38 +3005,48 @@
       <c r="R30">
         <v>0.2351</v>
       </c>
-      <c r="U30" s="3">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0.26790000000000003</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0.55279999999999996</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0.2472</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0.55030000000000001</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0.2419</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0.53959999999999997</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0.55710000000000004</v>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>16.162714285714287</v>
+      </c>
+      <c r="V30">
+        <v>70</v>
+      </c>
+      <c r="W30">
+        <v>40</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30">
+        <v>30</v>
+      </c>
+      <c r="Z30">
+        <v>25</v>
+      </c>
+      <c r="AA30">
+        <v>1131.3900000000001</v>
+      </c>
+      <c r="AB30">
+        <v>70</v>
       </c>
       <c r="AD30" s="3">
-        <v>0.2576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>17.46</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" ref="AE30:AE53" si="11">T30</f>
+        <v>37</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="10"/>
+        <v>646.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2419,11 +3066,11 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.54548000000000008</v>
       </c>
       <c r="H31">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(J31,L31,N31,P31,R31)</f>
         <v>0.17392000000000002</v>
       </c>
       <c r="I31">
@@ -2456,38 +3103,48 @@
       <c r="R31">
         <v>0.19650000000000001</v>
       </c>
-      <c r="U31" s="3">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0.18920000000000001</v>
-      </c>
-      <c r="W31" s="3">
-        <v>0.54430000000000001</v>
-      </c>
-      <c r="X31" s="3">
-        <v>0.2087</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>0.184</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>0.1925</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0.54869999999999997</v>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>15</v>
+      </c>
+      <c r="Z31">
+        <v>10</v>
+      </c>
+      <c r="AA31">
+        <v>1430</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
       </c>
       <c r="AD31" s="3">
-        <v>0.14219999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>39.46</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="10"/>
+        <v>315.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2507,11 +3164,11 @@
         <v>28</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.60806000000000004</v>
       </c>
       <c r="H32">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(J32,L32,N32,P32,R32)</f>
         <v>0.27073999999999998</v>
       </c>
       <c r="I32">
@@ -2544,38 +3201,48 @@
       <c r="R32">
         <v>0.2742</v>
       </c>
-      <c r="U32" s="3">
-        <v>0.6038</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0.2616</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0.60970000000000002</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0.26150000000000001</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0.60560000000000003</v>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>139.71666666666667</v>
+      </c>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>15</v>
+      </c>
+      <c r="Y32">
+        <v>20</v>
+      </c>
+      <c r="Z32">
+        <v>30</v>
+      </c>
+      <c r="AA32">
+        <v>4191.5</v>
+      </c>
+      <c r="AB32">
+        <v>30</v>
       </c>
       <c r="AD32" s="3">
-        <v>0.28010000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>40.22</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="10"/>
+        <v>844.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2595,11 +3262,11 @@
         <v>29</v>
       </c>
       <c r="G33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.549396</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="16">AVERAGE(J33,L33,N33,O33,R33)</f>
+        <f>AVERAGE(J33,L33,N33,O33,R33)</f>
         <v>0.24528</v>
       </c>
       <c r="I33">
@@ -2632,38 +3299,68 @@
       <c r="R33">
         <v>0.14940000000000001</v>
       </c>
-      <c r="U33" s="3">
-        <v>0.54620000000000002</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0.1535</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.2394</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.55159999999999998</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0.54630000000000001</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0.1535</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0.54090000000000005</v>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>183.44800000000001</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
+      </c>
+      <c r="AA33">
+        <v>1834.48</v>
+      </c>
+      <c r="AB33">
+        <v>10</v>
       </c>
       <c r="AD33" s="3">
-        <v>0.19009999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+        <v>40.1</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="10"/>
+        <v>280.7</v>
+      </c>
+      <c r="AJ33">
+        <v>14.81</v>
+      </c>
+      <c r="AK33">
+        <v>40</v>
+      </c>
+      <c r="AL33">
+        <f>AJ33*AK33</f>
+        <v>592.4</v>
+      </c>
+      <c r="AN33">
+        <v>13.74</v>
+      </c>
+      <c r="AO33">
+        <v>18</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" ref="AP33:AP38" si="12">AN33*AO33</f>
+        <v>247.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2683,11 +3380,11 @@
         <v>30</v>
       </c>
       <c r="G34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.54974000000000001</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="17">AVERAGE(J34,L34,N34,P34,R34)</f>
+        <f>AVERAGE(J34,L34,N34,P34,R34)</f>
         <v>0.18650000000000003</v>
       </c>
       <c r="I34">
@@ -2720,38 +3417,68 @@
       <c r="R34">
         <v>0.19900000000000001</v>
       </c>
-      <c r="U34" s="3">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="W34" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="X34" s="3">
-        <v>0.21340000000000001</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>0.1797</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>0.54769999999999996</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>0.1673</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0.54</v>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>143.285</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>10</v>
+      </c>
+      <c r="AA34">
+        <v>1432.85</v>
+      </c>
+      <c r="AB34">
+        <v>10</v>
       </c>
       <c r="AD34" s="3">
-        <v>0.15909999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+        <v>40.98</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="10"/>
+        <v>327.84</v>
+      </c>
+      <c r="AJ34">
+        <v>23.52</v>
+      </c>
+      <c r="AK34">
+        <v>37</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" ref="AL34:AL38" si="13">AJ34*AK34</f>
+        <v>870.24</v>
+      </c>
+      <c r="AN34">
+        <v>15.95</v>
+      </c>
+      <c r="AO34">
+        <v>29.2</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="12"/>
+        <v>465.73999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2771,11 +3498,11 @@
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G49" si="18">AVERAGE(I35,K35,M35,O35,Q35)</f>
+        <f t="shared" ref="G35:G49" si="14">AVERAGE(I35,K35,M35,O35,Q35)</f>
         <v>0.58864000000000005</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H38" si="19">AVERAGE(J35,L35,N35,P35,R35)</f>
+        <f>AVERAGE(J35,L35,N35,P35,R35)</f>
         <v>0.30962000000000001</v>
       </c>
       <c r="I35">
@@ -2808,8 +3535,68 @@
       <c r="R35">
         <v>0.32119999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>39.75</v>
+      </c>
+      <c r="V35">
+        <v>12</v>
+      </c>
+      <c r="W35">
+        <v>22</v>
+      </c>
+      <c r="X35">
+        <v>18</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>28</v>
+      </c>
+      <c r="AA35">
+        <v>1113</v>
+      </c>
+      <c r="AB35">
+        <v>28</v>
+      </c>
+      <c r="AD35">
+        <v>13.24</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="10"/>
+        <v>238.32</v>
+      </c>
+      <c r="AJ35">
+        <v>33.46</v>
+      </c>
+      <c r="AK35">
+        <v>8</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="13"/>
+        <v>267.68</v>
+      </c>
+      <c r="AN35">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="AO35">
+        <v>28</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="12"/>
+        <v>927.3599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2829,11 +3616,11 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.64558000000000004</v>
       </c>
       <c r="H36">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(J36,L36,N36,P36,R36)</f>
         <v>0.23652000000000001</v>
       </c>
       <c r="I36">
@@ -2866,8 +3653,68 @@
       <c r="R36">
         <v>0.23139999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" ht="16.5" customHeight="1">
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>29.2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>11.508448275862069</v>
+      </c>
+      <c r="V36">
+        <v>58</v>
+      </c>
+      <c r="W36">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>18</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>26</v>
+      </c>
+      <c r="AA36">
+        <v>667.49</v>
+      </c>
+      <c r="AB36">
+        <v>58</v>
+      </c>
+      <c r="AD36">
+        <v>12.3</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="11"/>
+        <v>29.2</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="10"/>
+        <v>359.16</v>
+      </c>
+      <c r="AJ36">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="AK36">
+        <v>21</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="13"/>
+        <v>704.55</v>
+      </c>
+      <c r="AN36">
+        <v>33.21</v>
+      </c>
+      <c r="AO36">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="12"/>
+        <v>611.06399999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="16.5" customHeight="1">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2887,11 +3734,11 @@
         <v>26</v>
       </c>
       <c r="G37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.63956000000000002</v>
       </c>
       <c r="H37">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(J37,L37,N37,P37,R37)</f>
         <v>0.22328000000000001</v>
       </c>
       <c r="I37">
@@ -2924,8 +3771,68 @@
       <c r="R37">
         <v>0.2266</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>136.24708333333334</v>
+      </c>
+      <c r="V37">
+        <v>18</v>
+      </c>
+      <c r="W37">
+        <v>14</v>
+      </c>
+      <c r="X37">
+        <v>48</v>
+      </c>
+      <c r="Y37">
+        <v>24</v>
+      </c>
+      <c r="Z37">
+        <v>36</v>
+      </c>
+      <c r="AA37">
+        <v>6539.86</v>
+      </c>
+      <c r="AB37">
+        <v>48</v>
+      </c>
+      <c r="AD37">
+        <v>39.74</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="10"/>
+        <v>1112.72</v>
+      </c>
+      <c r="AJ37">
+        <v>33.15</v>
+      </c>
+      <c r="AK37">
+        <v>7</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="13"/>
+        <v>232.04999999999998</v>
+      </c>
+      <c r="AN37">
+        <v>32.68</v>
+      </c>
+      <c r="AO37">
+        <v>29.6</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="12"/>
+        <v>967.32800000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2945,11 +3852,11 @@
         <v>28</v>
       </c>
       <c r="G38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.63627999999999996</v>
       </c>
       <c r="H38">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(J38,L38,N38,P38,R38)</f>
         <v>0.26022000000000001</v>
       </c>
       <c r="I38">
@@ -2982,8 +3889,68 @@
       <c r="R38">
         <v>0.25559999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>136.31291666666667</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>20</v>
+      </c>
+      <c r="X38">
+        <v>16</v>
+      </c>
+      <c r="Y38">
+        <v>22</v>
+      </c>
+      <c r="Z38">
+        <v>24</v>
+      </c>
+      <c r="AA38">
+        <v>3271.51</v>
+      </c>
+      <c r="AB38">
+        <v>24</v>
+      </c>
+      <c r="AD38">
+        <v>38.67</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="11"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="10"/>
+        <v>711.52800000000002</v>
+      </c>
+      <c r="AJ38">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="AK38">
+        <v>8</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="13"/>
+        <v>266.72000000000003</v>
+      </c>
+      <c r="AN38">
+        <v>32.85</v>
+      </c>
+      <c r="AO38">
+        <v>28</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="12"/>
+        <v>919.80000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3003,11 +3970,11 @@
         <v>29</v>
       </c>
       <c r="G39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.63756000000000002</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="20">AVERAGE(J39,L39,N39,O39,R39)</f>
+        <f>AVERAGE(J39,L39,N39,O39,R39)</f>
         <v>0.30768000000000006</v>
       </c>
       <c r="I39">
@@ -3040,8 +4007,48 @@
       <c r="R39">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>29.6</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>134.26604166666667</v>
+      </c>
+      <c r="V39">
+        <v>48</v>
+      </c>
+      <c r="W39">
+        <v>22</v>
+      </c>
+      <c r="X39">
+        <v>36</v>
+      </c>
+      <c r="Y39">
+        <v>16</v>
+      </c>
+      <c r="Z39">
+        <v>26</v>
+      </c>
+      <c r="AA39">
+        <v>6444.77</v>
+      </c>
+      <c r="AB39">
+        <v>48</v>
+      </c>
+      <c r="AD39">
+        <v>37.75</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="11"/>
+        <v>29.6</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="10"/>
+        <v>1117.4000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3061,11 +4068,11 @@
         <v>30</v>
       </c>
       <c r="G40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.63946000000000003</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40" si="21">AVERAGE(J40,L40,N40,P40,R40)</f>
+        <f>AVERAGE(J40,L40,N40,P40,R40)</f>
         <v>0.23174</v>
       </c>
       <c r="I40">
@@ -3098,8 +4105,58 @@
       <c r="R40">
         <v>0.2089</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="5"/>
+        <v>136.76694444444445</v>
+      </c>
+      <c r="V40">
+        <v>36</v>
+      </c>
+      <c r="W40">
+        <v>30</v>
+      </c>
+      <c r="X40">
+        <v>18</v>
+      </c>
+      <c r="Y40">
+        <v>36</v>
+      </c>
+      <c r="Z40">
+        <v>20</v>
+      </c>
+      <c r="AA40">
+        <v>4923.6099999999997</v>
+      </c>
+      <c r="AB40">
+        <v>36</v>
+      </c>
+      <c r="AD40">
+        <v>41.69</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="10"/>
+        <v>1167.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="AE41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" ref="AF41:AF53" si="15">AD41*AE41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -3118,12 +4175,12 @@
       <c r="F42" t="s">
         <v>35</v>
       </c>
-      <c r="G42">
-        <f>AVERAGE(I42,K42,M42,O42,Q42)</f>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42:H45" si="16">AVERAGE(I42,K42,M42,O42,Q42)</f>
         <v>0.56172</v>
       </c>
-      <c r="H42">
-        <f t="shared" ref="H42:H45" si="22">AVERAGE(J42,L42,N42,P42,R42)</f>
+      <c r="H42" s="1">
+        <f t="shared" si="16"/>
         <v>0.30662</v>
       </c>
       <c r="I42">
@@ -3156,34 +4213,51 @@
       <c r="R42">
         <v>0.31359999999999999</v>
       </c>
-      <c r="U42" s="3">
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0.5645</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0.31590000000000001</v>
-      </c>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>0.33950000000000002</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>0.56579999999999997</v>
+      <c r="T42">
+        <f t="shared" ref="T42:T53" si="17">AVERAGE(V42,W42,X42,Y42,Z42)</f>
+        <v>33</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>11.425000000000001</v>
+      </c>
+      <c r="V42">
+        <v>40</v>
+      </c>
+      <c r="W42">
+        <v>15</v>
+      </c>
+      <c r="X42">
+        <v>40</v>
+      </c>
+      <c r="Y42">
+        <v>50</v>
+      </c>
+      <c r="Z42">
+        <v>20</v>
+      </c>
+      <c r="AA42">
+        <v>457</v>
+      </c>
+      <c r="AB42">
+        <v>40</v>
+      </c>
+      <c r="AC42">
+        <v>24.03</v>
       </c>
       <c r="AD42" s="3">
-        <v>0.31830000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+        <v>28.12</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="15"/>
+        <v>927.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3203,11 +4277,11 @@
         <v>36</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G45" si="23">AVERAGE(I43,K43,M43,O43,Q43)</f>
+        <f t="shared" si="16"/>
         <v>0.55854000000000004</v>
       </c>
       <c r="H43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.21469999999999997</v>
       </c>
       <c r="I43">
@@ -3240,38 +4314,51 @@
       <c r="R43">
         <v>0.185</v>
       </c>
-      <c r="U43" s="3">
-        <v>0.56069999999999998</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0.17710000000000001</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0.56589999999999996</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0.2432</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0.5605</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0.25059999999999999</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0.55179999999999996</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0.18210000000000001</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0.55779999999999996</v>
+      <c r="T43">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="5"/>
+        <v>5.5692727272727272</v>
+      </c>
+      <c r="V43">
+        <v>25</v>
+      </c>
+      <c r="W43">
+        <v>30</v>
+      </c>
+      <c r="X43">
+        <v>30</v>
+      </c>
+      <c r="Y43">
+        <v>55</v>
+      </c>
+      <c r="Z43">
+        <v>20</v>
+      </c>
+      <c r="AA43">
+        <v>306.31</v>
+      </c>
+      <c r="AB43">
+        <v>55</v>
+      </c>
+      <c r="AC43">
+        <v>29.48</v>
       </c>
       <c r="AD43" s="3">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+        <v>29.48</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="15"/>
+        <v>943.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3291,11 +4378,11 @@
         <v>37</v>
       </c>
       <c r="G44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>0.54659999999999997</v>
       </c>
       <c r="H44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.16470000000000001</v>
       </c>
       <c r="I44">
@@ -3328,38 +4415,51 @@
       <c r="R44">
         <v>0.18540000000000001</v>
       </c>
-      <c r="U44" s="3">
-        <v>0.54690000000000005</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0.5534</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0.1699</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0.5403</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0.185</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0.1653</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0.54090000000000005</v>
+      <c r="T44">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="5"/>
+        <v>31.917000000000002</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+      <c r="AA44">
+        <v>319.17</v>
+      </c>
+      <c r="AB44">
+        <v>10</v>
+      </c>
+      <c r="AC44">
+        <v>43.51</v>
       </c>
       <c r="AD44" s="3">
-        <v>0.1757</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+        <v>40.01</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="15"/>
+        <v>360.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3379,11 +4479,11 @@
         <v>38</v>
       </c>
       <c r="G45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>0.61746000000000012</v>
       </c>
       <c r="H45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.25760000000000005</v>
       </c>
       <c r="I45">
@@ -3416,26 +4516,71 @@
       <c r="R45">
         <v>0.25490000000000002</v>
       </c>
-      <c r="U45" s="3">
-        <v>0.62429999999999997</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0.27410000000000001</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0.61819999999999997</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0.28320000000000001</v>
-      </c>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="T45">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="5"/>
+        <v>31.973333333333333</v>
+      </c>
+      <c r="V45">
+        <v>35</v>
+      </c>
+      <c r="W45">
+        <v>60</v>
+      </c>
+      <c r="X45">
+        <v>45</v>
+      </c>
+      <c r="Y45">
+        <v>30</v>
+      </c>
+      <c r="Z45">
+        <v>75</v>
+      </c>
+      <c r="AA45">
+        <v>2398</v>
+      </c>
+      <c r="AB45">
+        <v>75</v>
+      </c>
+      <c r="AC45">
+        <v>41.82</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>41.82</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="15"/>
+        <v>2049.1799999999998</v>
+      </c>
+      <c r="AJ45">
+        <v>28.12</v>
+      </c>
+      <c r="AK45">
+        <v>33</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" ref="AL45:AL50" si="18">AJ45*AK45</f>
+        <v>927.96</v>
+      </c>
+      <c r="AN45">
+        <v>27.12</v>
+      </c>
+      <c r="AO45">
+        <v>15.2</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" ref="AP45:AP50" si="19">AN45*AO45</f>
+        <v>412.22399999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -3455,11 +4600,11 @@
         <v>39</v>
       </c>
       <c r="G46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.54699999999999993</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H47" si="24">AVERAGE(J46,L46,N46,P46,R46)</f>
+        <f>AVERAGE(J46,L46,N46,P46,R46)</f>
         <v>0.17442000000000002</v>
       </c>
       <c r="I46">
@@ -3492,8 +4637,71 @@
       <c r="R46">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="T46">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="5"/>
+        <v>31.172000000000001</v>
+      </c>
+      <c r="V46">
+        <v>10</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>15</v>
+      </c>
+      <c r="Z46">
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>467.58</v>
+      </c>
+      <c r="AB46">
+        <v>15</v>
+      </c>
+      <c r="AC46">
+        <v>45.6</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="15"/>
+        <v>501.6</v>
+      </c>
+      <c r="AJ46">
+        <v>34.28</v>
+      </c>
+      <c r="AK46">
+        <v>32</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="18"/>
+        <v>1096.96</v>
+      </c>
+      <c r="AN46">
+        <v>29.87</v>
+      </c>
+      <c r="AO46">
+        <v>25.2</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="19"/>
+        <v>752.72400000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -3513,11 +4721,11 @@
         <v>40</v>
       </c>
       <c r="G47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.54930000000000001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(J47,L47,N47,P47,R47)</f>
         <v>0.19502000000000003</v>
       </c>
       <c r="I47">
@@ -3550,8 +4758,71 @@
       <c r="R47">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="T47">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="5"/>
+        <v>31.6448</v>
+      </c>
+      <c r="V47">
+        <v>25</v>
+      </c>
+      <c r="W47">
+        <v>15</v>
+      </c>
+      <c r="X47">
+        <v>20</v>
+      </c>
+      <c r="Y47">
+        <v>15</v>
+      </c>
+      <c r="Z47">
+        <v>10</v>
+      </c>
+      <c r="AA47">
+        <v>791.12</v>
+      </c>
+      <c r="AB47">
+        <v>25</v>
+      </c>
+      <c r="AC47">
+        <v>46.27</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>46.27</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="15"/>
+        <v>786.59</v>
+      </c>
+      <c r="AJ47">
+        <v>35.9</v>
+      </c>
+      <c r="AK47">
+        <v>9</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="18"/>
+        <v>323.09999999999997</v>
+      </c>
+      <c r="AN47">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="AO47">
+        <v>24.4</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="19"/>
+        <v>872.78800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3575,7 +4846,7 @@
         <v>0.60329999999999995</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="G48:H50" si="25">AVERAGE(J48,L48,N48,P48,R48)</f>
+        <f t="shared" ref="G48:H50" si="20">AVERAGE(J48,L48,N48,P48,R48)</f>
         <v>0.31328000000000006</v>
       </c>
       <c r="I48">
@@ -3608,8 +4879,71 @@
       <c r="R48">
         <v>0.31219999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="T48">
+        <f t="shared" si="17"/>
+        <v>15.2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="5"/>
+        <v>28.45</v>
+      </c>
+      <c r="V48">
+        <v>18</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="X48">
+        <v>12</v>
+      </c>
+      <c r="Y48">
+        <v>20</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+      <c r="AA48">
+        <v>569</v>
+      </c>
+      <c r="AB48">
+        <v>20</v>
+      </c>
+      <c r="AC48">
+        <v>21.18</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>24.03</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="11"/>
+        <v>15.2</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="15"/>
+        <v>365.25599999999997</v>
+      </c>
+      <c r="AJ48">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="AK48">
+        <v>49</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="18"/>
+        <v>1806.6299999999999</v>
+      </c>
+      <c r="AN48">
+        <v>36.67</v>
+      </c>
+      <c r="AO48">
+        <v>18.8</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="19"/>
+        <v>689.39600000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -3629,11 +4963,11 @@
         <v>36</v>
       </c>
       <c r="G49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.65564</v>
       </c>
       <c r="H49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0.22919999999999999</v>
       </c>
       <c r="I49">
@@ -3666,8 +5000,71 @@
       <c r="R49">
         <v>0.2298</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="T49">
+        <f t="shared" si="17"/>
+        <v>25.2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="5"/>
+        <v>11.585000000000001</v>
+      </c>
+      <c r="V49">
+        <v>30</v>
+      </c>
+      <c r="W49">
+        <v>28</v>
+      </c>
+      <c r="X49">
+        <v>30</v>
+      </c>
+      <c r="Y49">
+        <v>22</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+      <c r="AA49">
+        <v>347.55</v>
+      </c>
+      <c r="AB49">
+        <v>30</v>
+      </c>
+      <c r="AC49">
+        <v>22.53</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>29.48</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="11"/>
+        <v>25.2</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="15"/>
+        <v>742.89599999999996</v>
+      </c>
+      <c r="AJ49">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="AK49">
+        <v>11</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="18"/>
+        <v>409.97</v>
+      </c>
+      <c r="AN49">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="AO49">
+        <v>20.8</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="19"/>
+        <v>766.27200000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -3687,11 +5084,11 @@
         <v>37</v>
       </c>
       <c r="G50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0.64911999999999992</v>
       </c>
       <c r="H50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0.22191999999999998</v>
       </c>
       <c r="I50">
@@ -3724,8 +5121,71 @@
       <c r="R50">
         <v>0.2117</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="T50">
+        <f t="shared" si="17"/>
+        <v>24.4</v>
+      </c>
+      <c r="U50">
+        <f>AA50/AB50</f>
+        <v>77.686071428571424</v>
+      </c>
+      <c r="V50">
+        <v>24</v>
+      </c>
+      <c r="W50">
+        <v>20</v>
+      </c>
+      <c r="X50">
+        <v>28</v>
+      </c>
+      <c r="Y50">
+        <v>28</v>
+      </c>
+      <c r="Z50">
+        <v>22</v>
+      </c>
+      <c r="AA50">
+        <v>2175.21</v>
+      </c>
+      <c r="AB50">
+        <v>28</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>51.36</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>40.01</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="11"/>
+        <v>24.4</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="15"/>
+        <v>976.24399999999991</v>
+      </c>
+      <c r="AJ50">
+        <v>37.51</v>
+      </c>
+      <c r="AK50">
+        <v>17</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="18"/>
+        <v>637.66999999999996</v>
+      </c>
+      <c r="AN50">
+        <v>36.6</v>
+      </c>
+      <c r="AO50">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="19"/>
+        <v>746.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -3782,8 +5242,51 @@
       <c r="R51">
         <v>0.25490000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="T51">
+        <f t="shared" si="17"/>
+        <v>18.8</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="5"/>
+        <v>79.965666666666664</v>
+      </c>
+      <c r="V51">
+        <v>12</v>
+      </c>
+      <c r="W51">
+        <v>28</v>
+      </c>
+      <c r="X51">
+        <v>10</v>
+      </c>
+      <c r="Y51">
+        <v>14</v>
+      </c>
+      <c r="Z51">
+        <v>30</v>
+      </c>
+      <c r="AA51">
+        <v>2398.9699999999998</v>
+      </c>
+      <c r="AB51">
+        <v>30</v>
+      </c>
+      <c r="AC51">
+        <v>41.76</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>41.82</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="11"/>
+        <v>18.8</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="15"/>
+        <v>786.21600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
@@ -3840,8 +5343,51 @@
       <c r="R52">
         <v>0.21160000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="T52">
+        <f t="shared" si="17"/>
+        <v>20.8</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="5"/>
+        <v>78.776071428571427</v>
+      </c>
+      <c r="V52">
+        <v>28</v>
+      </c>
+      <c r="W52">
+        <v>20</v>
+      </c>
+      <c r="X52">
+        <v>16</v>
+      </c>
+      <c r="Y52">
+        <v>18</v>
+      </c>
+      <c r="Z52">
+        <v>22</v>
+      </c>
+      <c r="AA52">
+        <v>2205.73</v>
+      </c>
+      <c r="AB52">
+        <v>28</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>60.59</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="11"/>
+        <v>20.8</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="15"/>
+        <v>948.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
@@ -3897,6 +5443,529 @@
       </c>
       <c r="R53">
         <v>0.22600000000000001</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="17"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="V53">
+        <v>16</v>
+      </c>
+      <c r="W53">
+        <v>24</v>
+      </c>
+      <c r="X53">
+        <v>24</v>
+      </c>
+      <c r="Y53">
+        <v>12</v>
+      </c>
+      <c r="Z53">
+        <v>26</v>
+      </c>
+      <c r="AA53">
+        <v>2002</v>
+      </c>
+      <c r="AB53">
+        <v>26</v>
+      </c>
+      <c r="AC53">
+        <v>41.88</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>46.27</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="11"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="15"/>
+        <v>943.90800000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
+      <c r="AA58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="AC58">
+        <v>500</v>
+      </c>
+      <c r="AD58">
+        <v>13.24</v>
+      </c>
+      <c r="AE58">
+        <v>238.32</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH58">
+        <v>14.81</v>
+      </c>
+      <c r="AI58">
+        <v>592.4</v>
+      </c>
+      <c r="AJ58">
+        <v>13.74</v>
+      </c>
+      <c r="AK58">
+        <v>247.32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42">
+      <c r="AA59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>17.46</v>
+      </c>
+      <c r="AC59">
+        <v>646.02</v>
+      </c>
+      <c r="AD59">
+        <v>12.3</v>
+      </c>
+      <c r="AE59">
+        <v>359.16</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH59">
+        <v>23.52</v>
+      </c>
+      <c r="AI59">
+        <v>870.24</v>
+      </c>
+      <c r="AJ59">
+        <v>15.95</v>
+      </c>
+      <c r="AK59">
+        <v>465.73999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42">
+      <c r="AA60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>39.46</v>
+      </c>
+      <c r="AC60">
+        <v>315.68</v>
+      </c>
+      <c r="AD60">
+        <v>39.74</v>
+      </c>
+      <c r="AE60">
+        <v>1112.72</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH60">
+        <v>33.46</v>
+      </c>
+      <c r="AI60">
+        <v>267.68</v>
+      </c>
+      <c r="AJ60">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="AK60">
+        <v>927.3599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42">
+      <c r="AA61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>40.22</v>
+      </c>
+      <c r="AC61">
+        <v>844.62</v>
+      </c>
+      <c r="AD61">
+        <v>38.67</v>
+      </c>
+      <c r="AE61">
+        <v>711.52800000000002</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH61">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="AI61">
+        <v>704.55</v>
+      </c>
+      <c r="AJ61">
+        <v>33.21</v>
+      </c>
+      <c r="AK61">
+        <v>611.06399999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42">
+      <c r="AA62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>40.1</v>
+      </c>
+      <c r="AC62">
+        <v>280.7</v>
+      </c>
+      <c r="AD62">
+        <v>37.75</v>
+      </c>
+      <c r="AE62">
+        <v>1117.4000000000001</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH62">
+        <v>33.15</v>
+      </c>
+      <c r="AI62">
+        <v>232.04999999999998</v>
+      </c>
+      <c r="AJ62">
+        <v>32.68</v>
+      </c>
+      <c r="AK62">
+        <v>967.32800000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42">
+      <c r="AA63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>40.98</v>
+      </c>
+      <c r="AC63">
+        <v>327.84</v>
+      </c>
+      <c r="AD63">
+        <v>41.69</v>
+      </c>
+      <c r="AE63">
+        <v>1167.32</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH63">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="AI63">
+        <v>266.72000000000003</v>
+      </c>
+      <c r="AJ63">
+        <v>32.85</v>
+      </c>
+      <c r="AK63">
+        <v>919.80000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42">
+      <c r="AA64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB64">
+        <v>24.03</v>
+      </c>
+      <c r="AC64">
+        <v>927.96</v>
+      </c>
+      <c r="AD64">
+        <v>21.18</v>
+      </c>
+      <c r="AE64">
+        <v>365.25599999999997</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH64">
+        <v>28.12</v>
+      </c>
+      <c r="AI64">
+        <v>927.96</v>
+      </c>
+      <c r="AJ64">
+        <v>27.12</v>
+      </c>
+      <c r="AK64">
+        <v>412.22399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="27:37">
+      <c r="AA65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB65">
+        <v>29.48</v>
+      </c>
+      <c r="AC65">
+        <v>943.36</v>
+      </c>
+      <c r="AD65">
+        <v>22.53</v>
+      </c>
+      <c r="AE65">
+        <v>742.89599999999996</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH65" s="5">
+        <v>34.28</v>
+      </c>
+      <c r="AI65">
+        <v>1096.96</v>
+      </c>
+      <c r="AJ65">
+        <v>29.87</v>
+      </c>
+      <c r="AK65">
+        <v>752.72400000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="27:37">
+      <c r="AA66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB66">
+        <v>43.51</v>
+      </c>
+      <c r="AC66">
+        <v>360.09</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>51.36</v>
+      </c>
+      <c r="AE66">
+        <v>976.24399999999991</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH66">
+        <v>35.9</v>
+      </c>
+      <c r="AI66">
+        <v>323.09999999999997</v>
+      </c>
+      <c r="AJ66">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="AK66">
+        <v>872.78800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="27:37">
+      <c r="AA67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB67">
+        <v>41.82</v>
+      </c>
+      <c r="AC67">
+        <v>2049.1799999999998</v>
+      </c>
+      <c r="AD67">
+        <v>41.76</v>
+      </c>
+      <c r="AE67">
+        <v>786.21600000000001</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH67">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="AI67">
+        <v>1806.6299999999999</v>
+      </c>
+      <c r="AJ67">
+        <v>36.67</v>
+      </c>
+      <c r="AK67">
+        <v>689.39600000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="27:37">
+      <c r="AA68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB68">
+        <v>45.6</v>
+      </c>
+      <c r="AC68">
+        <v>501.6</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>60.59</v>
+      </c>
+      <c r="AE68">
+        <v>948.48</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH68">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="AI68">
+        <v>409.97</v>
+      </c>
+      <c r="AJ68">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="AK68">
+        <v>766.27200000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="27:37">
+      <c r="AA69" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB69">
+        <v>46.27</v>
+      </c>
+      <c r="AC69">
+        <v>786.59</v>
+      </c>
+      <c r="AD69">
+        <v>41.88</v>
+      </c>
+      <c r="AE69">
+        <v>943.90800000000002</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH69">
+        <v>37.51</v>
+      </c>
+      <c r="AI69">
+        <v>637.66999999999996</v>
+      </c>
+      <c r="AJ69">
+        <v>36.6</v>
+      </c>
+      <c r="AK69">
+        <v>746.64</v>
+      </c>
+    </row>
+    <row r="70" spans="27:37">
+      <c r="AD70">
+        <v>13.24</v>
+      </c>
+      <c r="AE70">
+        <v>238.32</v>
+      </c>
+    </row>
+    <row r="71" spans="27:37">
+      <c r="AD71">
+        <v>12.3</v>
+      </c>
+      <c r="AE71">
+        <v>359.16</v>
+      </c>
+    </row>
+    <row r="72" spans="27:37">
+      <c r="AD72">
+        <v>39.74</v>
+      </c>
+      <c r="AE72">
+        <v>1112.72</v>
+      </c>
+    </row>
+    <row r="73" spans="27:37">
+      <c r="AD73">
+        <v>38.67</v>
+      </c>
+      <c r="AE73">
+        <v>711.52800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="27:37">
+      <c r="AD74">
+        <v>37.75</v>
+      </c>
+      <c r="AE74">
+        <v>1117.4000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="27:37">
+      <c r="AD75">
+        <v>41.69</v>
+      </c>
+      <c r="AE75">
+        <v>1167.32</v>
+      </c>
+    </row>
+    <row r="76" spans="27:37">
+      <c r="AD76">
+        <v>21.18</v>
+      </c>
+      <c r="AE76">
+        <v>365.25599999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="27:37">
+      <c r="AD77">
+        <v>22.53</v>
+      </c>
+      <c r="AE77">
+        <v>742.89599999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="27:37">
+      <c r="AD78" s="4">
+        <v>51.36</v>
+      </c>
+      <c r="AE78">
+        <v>976.24399999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="27:37">
+      <c r="AD79">
+        <v>41.76</v>
+      </c>
+      <c r="AE79">
+        <v>786.21600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="27:37">
+      <c r="AD80" s="4">
+        <v>60.59</v>
+      </c>
+      <c r="AE80">
+        <v>948.48</v>
+      </c>
+    </row>
+    <row r="81" spans="30:31">
+      <c r="AD81">
+        <v>41.88</v>
+      </c>
+      <c r="AE81">
+        <v>943.90800000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3904,4 +5973,897 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78425C2C-3F49-46B7-A919-0D638DA9826B}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="5" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.46327999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.36129999999999995</v>
+      </c>
+      <c r="D2">
+        <v>1.68</v>
+      </c>
+      <c r="E2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.43373999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.26761999999999997</v>
+      </c>
+      <c r="D3">
+        <v>22.5</v>
+      </c>
+      <c r="E3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.34062000000000003</v>
+      </c>
+      <c r="D4">
+        <v>3.51</v>
+      </c>
+      <c r="E4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.20976000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.29754000000000003</v>
+      </c>
+      <c r="D5">
+        <v>4.12</v>
+      </c>
+      <c r="E5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.46148</v>
+      </c>
+      <c r="C6">
+        <v>0.35731999999999997</v>
+      </c>
+      <c r="D6">
+        <v>1.53</v>
+      </c>
+      <c r="E6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.44874000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.27086000000000005</v>
+      </c>
+      <c r="D7">
+        <v>20.51</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.34588000000000008</v>
+      </c>
+      <c r="C8">
+        <v>0.35052</v>
+      </c>
+      <c r="D8">
+        <v>2.48</v>
+      </c>
+      <c r="E8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.22976000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.27688000000000001</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0.45484000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.35233999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.52</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0.44658000000000009</v>
+      </c>
+      <c r="C11">
+        <v>0.26685999999999999</v>
+      </c>
+      <c r="D11">
+        <v>20.5</v>
+      </c>
+      <c r="E11">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0.33402000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.32728000000000002</v>
+      </c>
+      <c r="D12">
+        <v>3.32</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.19803999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.24538000000000001</v>
+      </c>
+      <c r="D13">
+        <v>3.92</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.45773999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.36146</v>
+      </c>
+      <c r="D14">
+        <v>1.95</v>
+      </c>
+      <c r="E14">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.44579999999999992</v>
+      </c>
+      <c r="C15">
+        <v>0.26197999999999999</v>
+      </c>
+      <c r="D15">
+        <v>20.52</v>
+      </c>
+      <c r="E15">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.3412</v>
+      </c>
+      <c r="C16">
+        <v>0.34338000000000002</v>
+      </c>
+      <c r="D16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E16">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.23044000000000003</v>
+      </c>
+      <c r="C17">
+        <v>0.25462000000000001</v>
+      </c>
+      <c r="D17">
+        <v>3.7218125</v>
+      </c>
+      <c r="E17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>0.41098000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.32982000000000006</v>
+      </c>
+      <c r="D18">
+        <v>4.4754230769230769</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0.22757999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.27504000000000001</v>
+      </c>
+      <c r="D19">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0.23416000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.28657999999999995</v>
+      </c>
+      <c r="D20">
+        <v>3.657142857142857</v>
+      </c>
+      <c r="E20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.45464000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.3533</v>
+      </c>
+      <c r="D22">
+        <v>1.5087692307692306</v>
+      </c>
+      <c r="E22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.31012000000000006</v>
+      </c>
+      <c r="D23">
+        <v>1.7913043478260871</v>
+      </c>
+      <c r="E23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.37038000000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.24702000000000002</v>
+      </c>
+      <c r="D24">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="E24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.45548</v>
+      </c>
+      <c r="C25">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="D25">
+        <v>3.1694</v>
+      </c>
+      <c r="E25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.25292000000000003</v>
+      </c>
+      <c r="D26">
+        <v>3.3357142857142859</v>
+      </c>
+      <c r="E26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.37744000000000005</v>
+      </c>
+      <c r="C27">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="D27">
+        <v>3.4388888888888891</v>
+      </c>
+      <c r="E27">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.5887</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.30351999999999996</v>
+      </c>
+      <c r="D29">
+        <v>40.745454545454542</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0.55063999999999991</v>
+      </c>
+      <c r="C30">
+        <v>0.24938000000000002</v>
+      </c>
+      <c r="D30">
+        <v>16.162714285714287</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0.54548000000000008</v>
+      </c>
+      <c r="C31">
+        <v>0.17392000000000002</v>
+      </c>
+      <c r="D31">
+        <v>143</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>0.60806000000000004</v>
+      </c>
+      <c r="C32">
+        <v>0.27073999999999998</v>
+      </c>
+      <c r="D32">
+        <v>139.71666666666667</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0.549396</v>
+      </c>
+      <c r="C33">
+        <v>0.24528</v>
+      </c>
+      <c r="D33">
+        <v>183.44800000000001</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.54974000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.18650000000000003</v>
+      </c>
+      <c r="D34">
+        <v>143.285</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.58864000000000005</v>
+      </c>
+      <c r="C35">
+        <v>0.30962000000000001</v>
+      </c>
+      <c r="D35">
+        <v>39.75</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>0.64558000000000004</v>
+      </c>
+      <c r="C36">
+        <v>0.23652000000000001</v>
+      </c>
+      <c r="D36">
+        <v>11.508448275862069</v>
+      </c>
+      <c r="E36">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0.63956000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.22328000000000001</v>
+      </c>
+      <c r="D37">
+        <v>136.24708333333334</v>
+      </c>
+      <c r="E37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>0.63627999999999996</v>
+      </c>
+      <c r="C38">
+        <v>0.26022000000000001</v>
+      </c>
+      <c r="D38">
+        <v>136.31291666666667</v>
+      </c>
+      <c r="E38">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>0.63756000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.30768000000000006</v>
+      </c>
+      <c r="D39">
+        <v>134.26604166666667</v>
+      </c>
+      <c r="E39">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0.63946000000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.23174</v>
+      </c>
+      <c r="D40">
+        <v>136.76694444444445</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.56172</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.30662</v>
+      </c>
+      <c r="D42">
+        <v>11.425000000000001</v>
+      </c>
+      <c r="E42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0.55854000000000004</v>
+      </c>
+      <c r="C43">
+        <v>0.21469999999999997</v>
+      </c>
+      <c r="D43">
+        <v>5.5692727272727272</v>
+      </c>
+      <c r="E43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="C44">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="D44">
+        <v>31.917000000000002</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0.61746000000000012</v>
+      </c>
+      <c r="C45">
+        <v>0.25760000000000005</v>
+      </c>
+      <c r="D45">
+        <v>31.973333333333333</v>
+      </c>
+      <c r="E45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0.54699999999999993</v>
+      </c>
+      <c r="C46">
+        <v>0.17442000000000002</v>
+      </c>
+      <c r="D46">
+        <v>31.172000000000001</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.19502000000000003</v>
+      </c>
+      <c r="D47">
+        <v>31.6448</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="C48">
+        <v>0.31328000000000006</v>
+      </c>
+      <c r="D48">
+        <v>28.45</v>
+      </c>
+      <c r="E48">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>0.65564</v>
+      </c>
+      <c r="C49">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="D49">
+        <v>11.585000000000001</v>
+      </c>
+      <c r="E49">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>0.64911999999999992</v>
+      </c>
+      <c r="C50">
+        <v>0.22191999999999998</v>
+      </c>
+      <c r="D50">
+        <v>77.686071428571424</v>
+      </c>
+      <c r="E50">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>0.65264</v>
+      </c>
+      <c r="C51">
+        <v>0.33106000000000002</v>
+      </c>
+      <c r="D51">
+        <v>79.965666666666664</v>
+      </c>
+      <c r="E51">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <v>0.64682000000000006</v>
+      </c>
+      <c r="C52">
+        <v>0.22023999999999999</v>
+      </c>
+      <c r="D52">
+        <v>78.776071428571427</v>
+      </c>
+      <c r="E52">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0.64783999999999997</v>
+      </c>
+      <c r="C53">
+        <v>0.21973999999999999</v>
+      </c>
+      <c r="D53">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>